--- a/BackTest/2020-01-11 BackTest DASH.xlsx
+++ b/BackTest/2020-01-11 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,6 +579,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,6 +621,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -653,6 +663,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -688,6 +699,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,6 +735,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -758,6 +771,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,6 +807,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -828,6 +843,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -863,6 +879,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -898,6 +915,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -933,6 +951,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -968,6 +987,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1003,6 +1023,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1038,6 +1059,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1073,6 +1095,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1108,6 +1131,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1143,6 +1167,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,6 +1203,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1213,6 +1239,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,6 +1275,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1283,6 +1311,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1318,6 +1347,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1353,6 +1383,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1388,6 +1419,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1423,6 +1455,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1458,6 +1491,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1493,6 +1527,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1528,6 +1563,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1563,6 +1599,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1598,6 +1635,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1633,6 +1671,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1668,6 +1707,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1703,6 +1743,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1738,6 +1779,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1773,6 +1815,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1808,6 +1851,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1843,6 +1887,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1878,6 +1923,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1913,6 +1959,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1948,6 +1995,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1983,6 +2031,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2018,6 +2067,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2053,6 +2103,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2088,6 +2139,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2123,6 +2175,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2158,6 +2211,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2193,6 +2247,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2228,6 +2283,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2263,6 +2319,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2298,6 +2355,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2333,6 +2391,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2368,6 +2427,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2403,6 +2463,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2438,6 +2499,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2473,6 +2535,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2508,6 +2571,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2543,6 +2607,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2578,6 +2643,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2613,6 +2679,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2648,6 +2715,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2683,6 +2751,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2718,6 +2787,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2753,6 +2823,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2788,6 +2859,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2823,6 +2895,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2858,6 +2931,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2893,6 +2967,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2928,6 +3003,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2963,6 +3039,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2998,6 +3075,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3033,6 +3111,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3068,6 +3147,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3103,6 +3183,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3130,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3138,6 +3219,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3173,6 +3255,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3208,6 +3291,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3243,6 +3327,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3278,6 +3363,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3313,6 +3399,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3340,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3348,6 +3435,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3375,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3383,6 +3471,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3410,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3418,6 +3507,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3445,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3453,6 +3543,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3488,6 +3579,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3523,6 +3615,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3550,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3558,6 +3651,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3585,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3593,6 +3687,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3620,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3628,6 +3723,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3663,6 +3759,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3698,6 +3795,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3733,6 +3831,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3760,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3768,6 +3867,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3795,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3803,6 +3903,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3838,6 +3939,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3865,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3873,6 +3975,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3908,6 +4011,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3935,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3943,6 +4047,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3978,6 +4083,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4005,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4013,6 +4119,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4040,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4048,6 +4155,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4075,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4083,6 +4191,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4110,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4118,6 +4227,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4159,6 +4269,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4200,6 +4311,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4241,6 +4353,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4280,6 +4393,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4319,6 +4433,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4358,6 +4473,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4397,6 +4513,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4436,6 +4553,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4475,6 +4593,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-11 BackTest DASH.xlsx
+++ b/BackTest/2020-01-11 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>57400</v>
+        <v>57450</v>
       </c>
       <c r="C2" t="n">
-        <v>57400</v>
+        <v>57450</v>
       </c>
       <c r="D2" t="n">
-        <v>57400</v>
+        <v>57450</v>
       </c>
       <c r="E2" t="n">
-        <v>57400</v>
+        <v>57450</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.0136</v>
       </c>
       <c r="G2" t="n">
-        <v>83.70771392000002</v>
+        <v>-240.8612</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>57300</v>
+        <v>57400</v>
       </c>
       <c r="C3" t="n">
-        <v>57300</v>
+        <v>57400</v>
       </c>
       <c r="D3" t="n">
-        <v>57300</v>
+        <v>57400</v>
       </c>
       <c r="E3" t="n">
-        <v>57300</v>
+        <v>57400</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0155</v>
+        <v>9.8079</v>
       </c>
       <c r="G3" t="n">
-        <v>83.69221392000001</v>
+        <v>-250.6691</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>57250</v>
+        <v>57400</v>
       </c>
       <c r="C4" t="n">
-        <v>57150</v>
+        <v>57400</v>
       </c>
       <c r="D4" t="n">
-        <v>57250</v>
+        <v>57400</v>
       </c>
       <c r="E4" t="n">
-        <v>57150</v>
+        <v>57400</v>
       </c>
       <c r="F4" t="n">
-        <v>2.0731</v>
+        <v>0.2599</v>
       </c>
       <c r="G4" t="n">
-        <v>81.61911392000002</v>
+        <v>-250.6691</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,35 +546,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>57150</v>
+        <v>57300</v>
       </c>
       <c r="C5" t="n">
-        <v>57150</v>
+        <v>57300</v>
       </c>
       <c r="D5" t="n">
-        <v>57150</v>
+        <v>57300</v>
       </c>
       <c r="E5" t="n">
-        <v>57150</v>
+        <v>57300</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>7.1134</v>
       </c>
       <c r="G5" t="n">
-        <v>81.61911392000002</v>
+        <v>-257.7825</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>57150</v>
-      </c>
-      <c r="K5" t="n">
-        <v>57150</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -586,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57150</v>
+        <v>57500</v>
       </c>
       <c r="C6" t="n">
-        <v>57150</v>
+        <v>57700</v>
       </c>
       <c r="D6" t="n">
-        <v>57150</v>
+        <v>57700</v>
       </c>
       <c r="E6" t="n">
-        <v>57150</v>
+        <v>57500</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>19.5667</v>
       </c>
       <c r="G6" t="n">
-        <v>81.61911392000002</v>
+        <v>-238.2158</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -610,14 +606,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>57150</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -628,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57100</v>
+        <v>57850</v>
       </c>
       <c r="C7" t="n">
-        <v>57100</v>
+        <v>57850</v>
       </c>
       <c r="D7" t="n">
-        <v>57100</v>
+        <v>57850</v>
       </c>
       <c r="E7" t="n">
-        <v>57100</v>
+        <v>57850</v>
       </c>
       <c r="F7" t="n">
-        <v>3.9126</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>77.70651392000002</v>
+        <v>-233.2158</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -652,14 +642,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>57150</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -670,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57050</v>
+        <v>57950</v>
       </c>
       <c r="C8" t="n">
-        <v>57050</v>
+        <v>57950</v>
       </c>
       <c r="D8" t="n">
-        <v>57050</v>
+        <v>57950</v>
       </c>
       <c r="E8" t="n">
-        <v>57050</v>
+        <v>57950</v>
       </c>
       <c r="F8" t="n">
-        <v>10.8</v>
+        <v>305.8282</v>
       </c>
       <c r="G8" t="n">
-        <v>66.90651392000002</v>
+        <v>72.61240000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -706,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>57050</v>
+        <v>58200</v>
       </c>
       <c r="C9" t="n">
-        <v>57050</v>
+        <v>58150</v>
       </c>
       <c r="D9" t="n">
-        <v>57050</v>
+        <v>58200</v>
       </c>
       <c r="E9" t="n">
-        <v>57050</v>
+        <v>58150</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>102.8753</v>
       </c>
       <c r="G9" t="n">
-        <v>66.90651392000002</v>
+        <v>175.4877</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -742,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>57100</v>
+        <v>58150</v>
       </c>
       <c r="C10" t="n">
-        <v>57100</v>
+        <v>58150</v>
       </c>
       <c r="D10" t="n">
-        <v>57100</v>
+        <v>58150</v>
       </c>
       <c r="E10" t="n">
-        <v>57100</v>
+        <v>58150</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6962</v>
+        <v>5.8261</v>
       </c>
       <c r="G10" t="n">
-        <v>67.60271392000003</v>
+        <v>175.4877</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -778,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>57100</v>
+        <v>58100</v>
       </c>
       <c r="C11" t="n">
-        <v>57100</v>
+        <v>58100</v>
       </c>
       <c r="D11" t="n">
-        <v>57100</v>
+        <v>58100</v>
       </c>
       <c r="E11" t="n">
-        <v>57100</v>
+        <v>58100</v>
       </c>
       <c r="F11" t="n">
-        <v>1.3593</v>
+        <v>9.754300000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>67.60271392000003</v>
+        <v>165.7334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -814,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>57100</v>
+        <v>58100</v>
       </c>
       <c r="C12" t="n">
-        <v>57100</v>
+        <v>58100</v>
       </c>
       <c r="D12" t="n">
-        <v>57100</v>
+        <v>58100</v>
       </c>
       <c r="E12" t="n">
-        <v>57100</v>
+        <v>58100</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6544</v>
+        <v>19.5163</v>
       </c>
       <c r="G12" t="n">
-        <v>67.60271392000003</v>
+        <v>165.7334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -850,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="C13" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="D13" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="E13" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8053</v>
+        <v>1.7065</v>
       </c>
       <c r="G13" t="n">
-        <v>66.79741392000003</v>
+        <v>165.7334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -886,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>57250</v>
+        <v>58100</v>
       </c>
       <c r="C14" t="n">
-        <v>57250</v>
+        <v>58100</v>
       </c>
       <c r="D14" t="n">
-        <v>57250</v>
+        <v>58100</v>
       </c>
       <c r="E14" t="n">
-        <v>57250</v>
+        <v>58100</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>17.7007</v>
       </c>
       <c r="G14" t="n">
-        <v>67.29741392000003</v>
+        <v>165.7334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -922,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>57200</v>
+        <v>58100</v>
       </c>
       <c r="C15" t="n">
-        <v>57200</v>
+        <v>58100</v>
       </c>
       <c r="D15" t="n">
-        <v>57200</v>
+        <v>58100</v>
       </c>
       <c r="E15" t="n">
-        <v>57200</v>
+        <v>58100</v>
       </c>
       <c r="F15" t="n">
-        <v>10.0533</v>
+        <v>30.8</v>
       </c>
       <c r="G15" t="n">
-        <v>57.24411392000003</v>
+        <v>165.7334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -958,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="C16" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="D16" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="E16" t="n">
-        <v>57050</v>
+        <v>58100</v>
       </c>
       <c r="F16" t="n">
-        <v>1.6639</v>
+        <v>31.5</v>
       </c>
       <c r="G16" t="n">
-        <v>55.58021392000003</v>
+        <v>165.7334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -994,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>57000</v>
+        <v>58100</v>
       </c>
       <c r="C17" t="n">
-        <v>57000</v>
+        <v>58100</v>
       </c>
       <c r="D17" t="n">
-        <v>57000</v>
+        <v>58100</v>
       </c>
       <c r="E17" t="n">
-        <v>57000</v>
+        <v>58100</v>
       </c>
       <c r="F17" t="n">
-        <v>10.0449</v>
+        <v>5.2204</v>
       </c>
       <c r="G17" t="n">
-        <v>45.53531392000003</v>
+        <v>165.7334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1030,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>57000</v>
+        <v>58050</v>
       </c>
       <c r="C18" t="n">
-        <v>56950</v>
+        <v>58000</v>
       </c>
       <c r="D18" t="n">
-        <v>57000</v>
+        <v>58050</v>
       </c>
       <c r="E18" t="n">
-        <v>56950</v>
+        <v>58000</v>
       </c>
       <c r="F18" t="n">
-        <v>10.0533</v>
+        <v>76.6337</v>
       </c>
       <c r="G18" t="n">
-        <v>35.48201392000003</v>
+        <v>89.09970000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1066,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>56950</v>
+        <v>58000</v>
       </c>
       <c r="C19" t="n">
-        <v>56950</v>
+        <v>58000</v>
       </c>
       <c r="D19" t="n">
-        <v>56950</v>
+        <v>58000</v>
       </c>
       <c r="E19" t="n">
-        <v>56950</v>
+        <v>58000</v>
       </c>
       <c r="F19" t="n">
-        <v>6.6726</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>35.48201392000003</v>
+        <v>89.09970000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1102,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>56950</v>
+        <v>57950</v>
       </c>
       <c r="C20" t="n">
-        <v>56950</v>
+        <v>58000</v>
       </c>
       <c r="D20" t="n">
-        <v>56950</v>
+        <v>58000</v>
       </c>
       <c r="E20" t="n">
-        <v>56950</v>
+        <v>57950</v>
       </c>
       <c r="F20" t="n">
-        <v>1.5141</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>35.48201392000003</v>
+        <v>89.09970000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1138,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>56900</v>
+        <v>57700</v>
       </c>
       <c r="C21" t="n">
-        <v>56900</v>
+        <v>58000</v>
       </c>
       <c r="D21" t="n">
-        <v>56900</v>
+        <v>58000</v>
       </c>
       <c r="E21" t="n">
-        <v>56900</v>
+        <v>57700</v>
       </c>
       <c r="F21" t="n">
-        <v>6.3661</v>
+        <v>7.1</v>
       </c>
       <c r="G21" t="n">
-        <v>29.11591392000003</v>
+        <v>89.09970000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1174,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>56900</v>
+        <v>57850</v>
       </c>
       <c r="C22" t="n">
-        <v>56900</v>
+        <v>57850</v>
       </c>
       <c r="D22" t="n">
-        <v>56900</v>
+        <v>57850</v>
       </c>
       <c r="E22" t="n">
-        <v>56900</v>
+        <v>57850</v>
       </c>
       <c r="F22" t="n">
-        <v>35.21</v>
+        <v>0.01728608</v>
       </c>
       <c r="G22" t="n">
-        <v>29.11591392000003</v>
+        <v>89.08241392000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1210,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>57000</v>
+        <v>57800</v>
       </c>
       <c r="C23" t="n">
-        <v>57000</v>
+        <v>57800</v>
       </c>
       <c r="D23" t="n">
-        <v>57000</v>
+        <v>57800</v>
       </c>
       <c r="E23" t="n">
-        <v>57000</v>
+        <v>57800</v>
       </c>
       <c r="F23" t="n">
-        <v>0.874</v>
+        <v>0.02</v>
       </c>
       <c r="G23" t="n">
-        <v>29.98991392000003</v>
+        <v>89.06241392000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1246,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>57050</v>
+        <v>57750</v>
       </c>
       <c r="C24" t="n">
-        <v>57050</v>
+        <v>57750</v>
       </c>
       <c r="D24" t="n">
-        <v>57050</v>
+        <v>57750</v>
       </c>
       <c r="E24" t="n">
-        <v>57050</v>
+        <v>57750</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2464</v>
+        <v>0.0173</v>
       </c>
       <c r="G24" t="n">
-        <v>30.23631392000003</v>
+        <v>89.04511392000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1282,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>57050</v>
+        <v>57650</v>
       </c>
       <c r="C25" t="n">
-        <v>57050</v>
+        <v>57650</v>
       </c>
       <c r="D25" t="n">
-        <v>57050</v>
+        <v>57650</v>
       </c>
       <c r="E25" t="n">
-        <v>57050</v>
+        <v>57650</v>
       </c>
       <c r="F25" t="n">
-        <v>4.8795</v>
+        <v>0.0155</v>
       </c>
       <c r="G25" t="n">
-        <v>30.23631392000003</v>
+        <v>89.02961392</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1318,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>57050</v>
+        <v>57550</v>
       </c>
       <c r="C26" t="n">
-        <v>57050</v>
+        <v>57500</v>
       </c>
       <c r="D26" t="n">
-        <v>57050</v>
+        <v>57550</v>
       </c>
       <c r="E26" t="n">
-        <v>57050</v>
+        <v>57500</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0361</v>
+        <v>5.2355</v>
       </c>
       <c r="G26" t="n">
-        <v>30.23631392000003</v>
+        <v>83.79411392</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1354,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>56900</v>
+        <v>57500</v>
       </c>
       <c r="C27" t="n">
-        <v>56900</v>
+        <v>57500</v>
       </c>
       <c r="D27" t="n">
-        <v>56900</v>
+        <v>57500</v>
       </c>
       <c r="E27" t="n">
-        <v>56900</v>
+        <v>57500</v>
       </c>
       <c r="F27" t="n">
-        <v>5.2232</v>
+        <v>3.9551</v>
       </c>
       <c r="G27" t="n">
-        <v>25.01311392000003</v>
+        <v>83.79411392</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1390,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>57100</v>
+        <v>57400</v>
       </c>
       <c r="C28" t="n">
-        <v>57300</v>
+        <v>57400</v>
       </c>
       <c r="D28" t="n">
-        <v>57300</v>
+        <v>57400</v>
       </c>
       <c r="E28" t="n">
-        <v>57100</v>
+        <v>57400</v>
       </c>
       <c r="F28" t="n">
-        <v>12.1</v>
+        <v>0.1402</v>
       </c>
       <c r="G28" t="n">
-        <v>37.11311392000003</v>
+        <v>83.65391392000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1426,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>57350</v>
+        <v>57450</v>
       </c>
       <c r="C29" t="n">
-        <v>57350</v>
+        <v>57450</v>
       </c>
       <c r="D29" t="n">
-        <v>57350</v>
+        <v>57450</v>
       </c>
       <c r="E29" t="n">
-        <v>57350</v>
+        <v>57450</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0175</v>
+        <v>0.1538</v>
       </c>
       <c r="G29" t="n">
-        <v>37.13061392000003</v>
+        <v>83.80771392000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1462,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>57350</v>
+        <v>57450</v>
       </c>
       <c r="C30" t="n">
-        <v>57350</v>
+        <v>57450</v>
       </c>
       <c r="D30" t="n">
-        <v>57350</v>
+        <v>57450</v>
       </c>
       <c r="E30" t="n">
-        <v>57350</v>
+        <v>57450</v>
       </c>
       <c r="F30" t="n">
-        <v>1.4787</v>
+        <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>37.13061392000003</v>
+        <v>83.80771392000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1498,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>57350</v>
+        <v>57400</v>
       </c>
       <c r="C31" t="n">
-        <v>57350</v>
+        <v>57400</v>
       </c>
       <c r="D31" t="n">
-        <v>57350</v>
+        <v>57400</v>
       </c>
       <c r="E31" t="n">
-        <v>57350</v>
+        <v>57400</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
       <c r="G31" t="n">
-        <v>37.13061392000003</v>
+        <v>83.70771392000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1534,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="C32" t="n">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="D32" t="n">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="E32" t="n">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.0155</v>
       </c>
       <c r="G32" t="n">
-        <v>37.21521392000003</v>
+        <v>83.69221392000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1570,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>57800</v>
+        <v>57250</v>
       </c>
       <c r="C33" t="n">
-        <v>57800</v>
+        <v>57150</v>
       </c>
       <c r="D33" t="n">
-        <v>57800</v>
+        <v>57250</v>
       </c>
       <c r="E33" t="n">
-        <v>57800</v>
+        <v>57150</v>
       </c>
       <c r="F33" t="n">
-        <v>2.2426</v>
+        <v>2.0731</v>
       </c>
       <c r="G33" t="n">
-        <v>39.45781392000004</v>
+        <v>81.61911392000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1606,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>57750</v>
+        <v>57150</v>
       </c>
       <c r="C34" t="n">
-        <v>57600</v>
+        <v>57150</v>
       </c>
       <c r="D34" t="n">
-        <v>57750</v>
+        <v>57150</v>
       </c>
       <c r="E34" t="n">
-        <v>57600</v>
+        <v>57150</v>
       </c>
       <c r="F34" t="n">
-        <v>13.6405</v>
+        <v>0.1</v>
       </c>
       <c r="G34" t="n">
-        <v>25.81731392000004</v>
+        <v>81.61911392000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1642,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>57600</v>
+        <v>57150</v>
       </c>
       <c r="C35" t="n">
-        <v>57600</v>
+        <v>57150</v>
       </c>
       <c r="D35" t="n">
-        <v>57600</v>
+        <v>57150</v>
       </c>
       <c r="E35" t="n">
-        <v>57600</v>
+        <v>57150</v>
       </c>
       <c r="F35" t="n">
-        <v>2.8335</v>
+        <v>0.5</v>
       </c>
       <c r="G35" t="n">
-        <v>25.81731392000004</v>
+        <v>81.61911392000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1678,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>57250</v>
+        <v>57100</v>
       </c>
       <c r="C36" t="n">
-        <v>57250</v>
+        <v>57100</v>
       </c>
       <c r="D36" t="n">
-        <v>57250</v>
+        <v>57100</v>
       </c>
       <c r="E36" t="n">
-        <v>57250</v>
+        <v>57100</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0175</v>
+        <v>3.9126</v>
       </c>
       <c r="G36" t="n">
-        <v>25.79981392000004</v>
+        <v>77.70651392000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1714,31 +1698,35 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>57350</v>
+        <v>57050</v>
       </c>
       <c r="C37" t="n">
-        <v>57350</v>
+        <v>57050</v>
       </c>
       <c r="D37" t="n">
-        <v>57350</v>
+        <v>57050</v>
       </c>
       <c r="E37" t="n">
-        <v>57350</v>
+        <v>57050</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0105</v>
+        <v>10.8</v>
       </c>
       <c r="G37" t="n">
-        <v>25.81031392000004</v>
+        <v>66.90651392000002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>57100</v>
+      </c>
+      <c r="K37" t="n">
+        <v>57100</v>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
@@ -1750,32 +1738,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>57200</v>
+        <v>57050</v>
       </c>
       <c r="C38" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="D38" t="n">
-        <v>57200</v>
+        <v>57050</v>
       </c>
       <c r="E38" t="n">
-        <v>57000</v>
+        <v>57050</v>
       </c>
       <c r="F38" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G38" t="n">
-        <v>-29.18968607999996</v>
+        <v>66.90651392000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>57050</v>
+      </c>
+      <c r="K38" t="n">
+        <v>57100</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1786,22 +1782,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="C39" t="n">
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="D39" t="n">
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="E39" t="n">
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="F39" t="n">
-        <v>8</v>
+        <v>0.6962</v>
       </c>
       <c r="G39" t="n">
-        <v>-29.18968607999996</v>
+        <v>67.60271392000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1810,8 +1806,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>57100</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1822,22 +1824,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>57150</v>
+        <v>57100</v>
       </c>
       <c r="C40" t="n">
-        <v>57150</v>
+        <v>57100</v>
       </c>
       <c r="D40" t="n">
-        <v>57150</v>
+        <v>57100</v>
       </c>
       <c r="E40" t="n">
-        <v>57150</v>
+        <v>57100</v>
       </c>
       <c r="F40" t="n">
-        <v>2.2516</v>
+        <v>1.3593</v>
       </c>
       <c r="G40" t="n">
-        <v>-26.93808607999996</v>
+        <v>67.60271392000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1858,22 +1860,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>57050</v>
+        <v>57100</v>
       </c>
       <c r="C41" t="n">
-        <v>56950</v>
+        <v>57100</v>
       </c>
       <c r="D41" t="n">
-        <v>57050</v>
+        <v>57100</v>
       </c>
       <c r="E41" t="n">
-        <v>56950</v>
+        <v>57100</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>0.6544</v>
       </c>
       <c r="G41" t="n">
-        <v>-29.93808607999996</v>
+        <v>67.60271392000003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1894,22 +1896,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>57200</v>
+        <v>57050</v>
       </c>
       <c r="C42" t="n">
-        <v>57200</v>
+        <v>57050</v>
       </c>
       <c r="D42" t="n">
-        <v>57200</v>
+        <v>57050</v>
       </c>
       <c r="E42" t="n">
-        <v>57200</v>
+        <v>57050</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7694</v>
+        <v>0.8053</v>
       </c>
       <c r="G42" t="n">
-        <v>-29.16868607999996</v>
+        <v>66.79741392000003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1942,10 +1944,10 @@
         <v>57250</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0473</v>
+        <v>0.5</v>
       </c>
       <c r="G43" t="n">
-        <v>-28.12138607999996</v>
+        <v>67.29741392000003</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1966,31 +1968,35 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>57250</v>
+        <v>57200</v>
       </c>
       <c r="C44" t="n">
-        <v>57250</v>
+        <v>57200</v>
       </c>
       <c r="D44" t="n">
-        <v>57250</v>
+        <v>57200</v>
       </c>
       <c r="E44" t="n">
-        <v>57250</v>
+        <v>57200</v>
       </c>
       <c r="F44" t="n">
-        <v>2.0006</v>
+        <v>10.0533</v>
       </c>
       <c r="G44" t="n">
-        <v>-28.12138607999996</v>
+        <v>57.24411392000003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>57250</v>
+      </c>
+      <c r="K44" t="n">
+        <v>57250</v>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
@@ -2002,32 +2008,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>57300</v>
+        <v>57050</v>
       </c>
       <c r="C45" t="n">
-        <v>57300</v>
+        <v>57050</v>
       </c>
       <c r="D45" t="n">
-        <v>57300</v>
+        <v>57050</v>
       </c>
       <c r="E45" t="n">
-        <v>57300</v>
+        <v>57050</v>
       </c>
       <c r="F45" t="n">
-        <v>12.6676</v>
+        <v>1.6639</v>
       </c>
       <c r="G45" t="n">
-        <v>-15.45378607999996</v>
+        <v>55.58021392000003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K45" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2038,32 +2052,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>57300</v>
+        <v>57000</v>
       </c>
       <c r="C46" t="n">
-        <v>57600</v>
+        <v>57000</v>
       </c>
       <c r="D46" t="n">
-        <v>57600</v>
+        <v>57000</v>
       </c>
       <c r="E46" t="n">
-        <v>57300</v>
+        <v>57000</v>
       </c>
       <c r="F46" t="n">
-        <v>1.5</v>
+        <v>10.0449</v>
       </c>
       <c r="G46" t="n">
-        <v>-13.95378607999996</v>
+        <v>45.53531392000003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>57050</v>
+      </c>
+      <c r="K46" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2074,32 +2096,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>58000</v>
+        <v>57000</v>
       </c>
       <c r="C47" t="n">
-        <v>58000</v>
+        <v>56950</v>
       </c>
       <c r="D47" t="n">
-        <v>58000</v>
+        <v>57000</v>
       </c>
       <c r="E47" t="n">
-        <v>58000</v>
+        <v>56950</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1</v>
+        <v>10.0533</v>
       </c>
       <c r="G47" t="n">
-        <v>-13.85378607999996</v>
+        <v>35.48201392000003</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>57000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2110,32 +2140,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>58000</v>
+        <v>56950</v>
       </c>
       <c r="C48" t="n">
-        <v>58350</v>
+        <v>56950</v>
       </c>
       <c r="D48" t="n">
-        <v>58350</v>
+        <v>56950</v>
       </c>
       <c r="E48" t="n">
-        <v>58000</v>
+        <v>56950</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6403</v>
+        <v>6.6726</v>
       </c>
       <c r="G48" t="n">
-        <v>-13.21348607999996</v>
+        <v>35.48201392000003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>56950</v>
+      </c>
+      <c r="K48" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2146,32 +2184,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>58350</v>
+        <v>56950</v>
       </c>
       <c r="C49" t="n">
-        <v>58350</v>
+        <v>56950</v>
       </c>
       <c r="D49" t="n">
-        <v>58350</v>
+        <v>56950</v>
       </c>
       <c r="E49" t="n">
-        <v>58350</v>
+        <v>56950</v>
       </c>
       <c r="F49" t="n">
-        <v>3.3127</v>
+        <v>1.5141</v>
       </c>
       <c r="G49" t="n">
-        <v>-13.21348607999996</v>
+        <v>35.48201392000003</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>56950</v>
+      </c>
+      <c r="K49" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2182,32 +2228,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>57900</v>
+        <v>56900</v>
       </c>
       <c r="C50" t="n">
-        <v>57900</v>
+        <v>56900</v>
       </c>
       <c r="D50" t="n">
-        <v>57900</v>
+        <v>56900</v>
       </c>
       <c r="E50" t="n">
-        <v>57900</v>
+        <v>56900</v>
       </c>
       <c r="F50" t="n">
-        <v>26.9565</v>
+        <v>6.3661</v>
       </c>
       <c r="G50" t="n">
-        <v>-40.16998607999996</v>
+        <v>29.11591392000003</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>56950</v>
+      </c>
+      <c r="K50" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2218,32 +2272,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>58300</v>
+        <v>56900</v>
       </c>
       <c r="C51" t="n">
-        <v>58300</v>
+        <v>56900</v>
       </c>
       <c r="D51" t="n">
-        <v>58300</v>
+        <v>56900</v>
       </c>
       <c r="E51" t="n">
-        <v>58300</v>
+        <v>56900</v>
       </c>
       <c r="F51" t="n">
-        <v>4.0549</v>
+        <v>35.21</v>
       </c>
       <c r="G51" t="n">
-        <v>-36.11508607999995</v>
+        <v>29.11591392000003</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>56900</v>
+      </c>
+      <c r="K51" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2254,32 +2316,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>58750</v>
+        <v>57000</v>
       </c>
       <c r="C52" t="n">
-        <v>58750</v>
+        <v>57000</v>
       </c>
       <c r="D52" t="n">
-        <v>58750</v>
+        <v>57000</v>
       </c>
       <c r="E52" t="n">
-        <v>58750</v>
+        <v>57000</v>
       </c>
       <c r="F52" t="n">
-        <v>4.17</v>
+        <v>0.874</v>
       </c>
       <c r="G52" t="n">
-        <v>-31.94508607999995</v>
+        <v>29.98991392000003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>56900</v>
+      </c>
+      <c r="K52" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2290,32 +2360,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>58800</v>
+        <v>57050</v>
       </c>
       <c r="C53" t="n">
-        <v>58950</v>
+        <v>57050</v>
       </c>
       <c r="D53" t="n">
-        <v>58950</v>
+        <v>57050</v>
       </c>
       <c r="E53" t="n">
-        <v>58750</v>
+        <v>57050</v>
       </c>
       <c r="F53" t="n">
-        <v>10.3685</v>
+        <v>0.2464</v>
       </c>
       <c r="G53" t="n">
-        <v>-21.57658607999996</v>
+        <v>30.23631392000003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>57000</v>
+      </c>
+      <c r="K53" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2326,32 +2404,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>58950</v>
+        <v>57050</v>
       </c>
       <c r="C54" t="n">
-        <v>58950</v>
+        <v>57050</v>
       </c>
       <c r="D54" t="n">
-        <v>58950</v>
+        <v>57050</v>
       </c>
       <c r="E54" t="n">
-        <v>58950</v>
+        <v>57050</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02</v>
+        <v>4.8795</v>
       </c>
       <c r="G54" t="n">
-        <v>-21.57658607999996</v>
+        <v>30.23631392000003</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>57050</v>
+      </c>
+      <c r="K54" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2362,32 +2448,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>58650</v>
+        <v>57050</v>
       </c>
       <c r="C55" t="n">
-        <v>58650</v>
+        <v>57050</v>
       </c>
       <c r="D55" t="n">
-        <v>58650</v>
+        <v>57050</v>
       </c>
       <c r="E55" t="n">
-        <v>58650</v>
+        <v>57050</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0512</v>
+        <v>1.0361</v>
       </c>
       <c r="G55" t="n">
-        <v>-21.62778607999996</v>
+        <v>30.23631392000003</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>57050</v>
+      </c>
+      <c r="K55" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2398,32 +2492,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>58700</v>
+        <v>56900</v>
       </c>
       <c r="C56" t="n">
-        <v>59000</v>
+        <v>56900</v>
       </c>
       <c r="D56" t="n">
-        <v>59000</v>
+        <v>56900</v>
       </c>
       <c r="E56" t="n">
-        <v>58650</v>
+        <v>56900</v>
       </c>
       <c r="F56" t="n">
-        <v>38.9574</v>
+        <v>5.2232</v>
       </c>
       <c r="G56" t="n">
-        <v>17.32961392000004</v>
+        <v>25.01311392000003</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>57050</v>
+      </c>
+      <c r="K56" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2434,32 +2536,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>58800</v>
+        <v>57100</v>
       </c>
       <c r="C57" t="n">
-        <v>58900</v>
+        <v>57300</v>
       </c>
       <c r="D57" t="n">
-        <v>58900</v>
+        <v>57300</v>
       </c>
       <c r="E57" t="n">
-        <v>58800</v>
+        <v>57100</v>
       </c>
       <c r="F57" t="n">
-        <v>60</v>
+        <v>12.1</v>
       </c>
       <c r="G57" t="n">
-        <v>-42.67038607999996</v>
+        <v>37.11311392000003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>56900</v>
+      </c>
+      <c r="K57" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2470,32 +2580,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>58950</v>
+        <v>57350</v>
       </c>
       <c r="C58" t="n">
-        <v>58950</v>
+        <v>57350</v>
       </c>
       <c r="D58" t="n">
-        <v>58950</v>
+        <v>57350</v>
       </c>
       <c r="E58" t="n">
-        <v>58950</v>
+        <v>57350</v>
       </c>
       <c r="F58" t="n">
-        <v>33.7778</v>
+        <v>0.0175</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.892586079999958</v>
+        <v>37.13061392000003</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>57300</v>
+      </c>
+      <c r="K58" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2506,22 +2624,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>59200</v>
+        <v>57350</v>
       </c>
       <c r="C59" t="n">
-        <v>59200</v>
+        <v>57350</v>
       </c>
       <c r="D59" t="n">
-        <v>59200</v>
+        <v>57350</v>
       </c>
       <c r="E59" t="n">
-        <v>59200</v>
+        <v>57350</v>
       </c>
       <c r="F59" t="n">
-        <v>2.7008</v>
+        <v>1.4787</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.191786079999958</v>
+        <v>37.13061392000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2530,8 +2648,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2542,22 +2666,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>59200</v>
+        <v>57350</v>
       </c>
       <c r="C60" t="n">
-        <v>59200</v>
+        <v>57350</v>
       </c>
       <c r="D60" t="n">
-        <v>59200</v>
+        <v>57350</v>
       </c>
       <c r="E60" t="n">
-        <v>59200</v>
+        <v>57350</v>
       </c>
       <c r="F60" t="n">
-        <v>1.3464</v>
+        <v>0.0001</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.191786079999958</v>
+        <v>37.13061392000003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2566,8 +2690,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2578,22 +2708,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>59200</v>
+        <v>57400</v>
       </c>
       <c r="C61" t="n">
-        <v>59200</v>
+        <v>57400</v>
       </c>
       <c r="D61" t="n">
-        <v>59200</v>
+        <v>57400</v>
       </c>
       <c r="E61" t="n">
-        <v>59200</v>
+        <v>57400</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3399</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.191786079999958</v>
+        <v>37.21521392000003</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2602,8 +2732,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2614,22 +2750,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>59450</v>
+        <v>57800</v>
       </c>
       <c r="C62" t="n">
-        <v>59450</v>
+        <v>57800</v>
       </c>
       <c r="D62" t="n">
-        <v>59450</v>
+        <v>57800</v>
       </c>
       <c r="E62" t="n">
-        <v>59450</v>
+        <v>57800</v>
       </c>
       <c r="F62" t="n">
-        <v>4.17</v>
+        <v>2.2426</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.021786079999958</v>
+        <v>39.45781392000004</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2638,8 +2774,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2650,22 +2792,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>59500</v>
+        <v>57750</v>
       </c>
       <c r="C63" t="n">
-        <v>59500</v>
+        <v>57600</v>
       </c>
       <c r="D63" t="n">
-        <v>59500</v>
+        <v>57750</v>
       </c>
       <c r="E63" t="n">
-        <v>59500</v>
+        <v>57600</v>
       </c>
       <c r="F63" t="n">
-        <v>1.0289</v>
+        <v>13.6405</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.9928860799999584</v>
+        <v>25.81731392000004</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2674,8 +2816,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2686,22 +2834,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>59500</v>
+        <v>57600</v>
       </c>
       <c r="C64" t="n">
-        <v>59500</v>
+        <v>57600</v>
       </c>
       <c r="D64" t="n">
-        <v>59500</v>
+        <v>57600</v>
       </c>
       <c r="E64" t="n">
-        <v>59500</v>
+        <v>57600</v>
       </c>
       <c r="F64" t="n">
-        <v>5.1423</v>
+        <v>2.8335</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.9928860799999584</v>
+        <v>25.81731392000004</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2710,8 +2858,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2722,22 +2876,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>59500</v>
+        <v>57250</v>
       </c>
       <c r="C65" t="n">
-        <v>59500</v>
+        <v>57250</v>
       </c>
       <c r="D65" t="n">
-        <v>59500</v>
+        <v>57250</v>
       </c>
       <c r="E65" t="n">
-        <v>59500</v>
+        <v>57250</v>
       </c>
       <c r="F65" t="n">
-        <v>54.8513</v>
+        <v>0.0175</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.9928860799999584</v>
+        <v>25.79981392000004</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2746,8 +2900,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2758,22 +2918,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>59350</v>
+        <v>57350</v>
       </c>
       <c r="C66" t="n">
-        <v>59350</v>
+        <v>57350</v>
       </c>
       <c r="D66" t="n">
-        <v>59350</v>
+        <v>57350</v>
       </c>
       <c r="E66" t="n">
-        <v>59350</v>
+        <v>57350</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0253</v>
+        <v>0.0105</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.018186079999958</v>
+        <v>25.81031392000004</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2782,8 +2942,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2794,22 +2960,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>59600</v>
+        <v>57200</v>
       </c>
       <c r="C67" t="n">
-        <v>59850</v>
+        <v>57000</v>
       </c>
       <c r="D67" t="n">
-        <v>59850</v>
+        <v>57200</v>
       </c>
       <c r="E67" t="n">
-        <v>59600</v>
+        <v>57000</v>
       </c>
       <c r="F67" t="n">
-        <v>13.9157</v>
+        <v>55</v>
       </c>
       <c r="G67" t="n">
-        <v>12.89751392000004</v>
+        <v>-29.18968607999996</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2818,8 +2984,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2830,22 +3002,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>59650</v>
+        <v>57000</v>
       </c>
       <c r="C68" t="n">
-        <v>59650</v>
+        <v>57000</v>
       </c>
       <c r="D68" t="n">
-        <v>59650</v>
+        <v>57000</v>
       </c>
       <c r="E68" t="n">
-        <v>59650</v>
+        <v>57000</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0168</v>
+        <v>8</v>
       </c>
       <c r="G68" t="n">
-        <v>12.88071392000004</v>
+        <v>-29.18968607999996</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2854,8 +3026,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2866,22 +3044,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>60000</v>
+        <v>57150</v>
       </c>
       <c r="C69" t="n">
-        <v>60400</v>
+        <v>57150</v>
       </c>
       <c r="D69" t="n">
-        <v>60500</v>
+        <v>57150</v>
       </c>
       <c r="E69" t="n">
-        <v>60000</v>
+        <v>57150</v>
       </c>
       <c r="F69" t="n">
-        <v>50.659</v>
+        <v>2.2516</v>
       </c>
       <c r="G69" t="n">
-        <v>63.53971392000004</v>
+        <v>-26.93808607999996</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2890,8 +3068,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2902,22 +3086,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>60150</v>
+        <v>57050</v>
       </c>
       <c r="C70" t="n">
-        <v>60550</v>
+        <v>56950</v>
       </c>
       <c r="D70" t="n">
-        <v>60550</v>
+        <v>57050</v>
       </c>
       <c r="E70" t="n">
-        <v>60150</v>
+        <v>56950</v>
       </c>
       <c r="F70" t="n">
-        <v>2.1054</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>65.64511392000004</v>
+        <v>-29.93808607999996</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2926,8 +3110,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2938,32 +3128,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>60550</v>
+        <v>57200</v>
       </c>
       <c r="C71" t="n">
-        <v>60550</v>
+        <v>57200</v>
       </c>
       <c r="D71" t="n">
-        <v>60550</v>
+        <v>57200</v>
       </c>
       <c r="E71" t="n">
-        <v>60550</v>
+        <v>57200</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>0.7694</v>
       </c>
       <c r="G71" t="n">
-        <v>65.64511392000004</v>
+        <v>-29.16868607999996</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>56950</v>
+      </c>
+      <c r="K71" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2974,32 +3172,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>60550</v>
+        <v>57250</v>
       </c>
       <c r="C72" t="n">
-        <v>60550</v>
+        <v>57250</v>
       </c>
       <c r="D72" t="n">
-        <v>60550</v>
+        <v>57250</v>
       </c>
       <c r="E72" t="n">
-        <v>60550</v>
+        <v>57250</v>
       </c>
       <c r="F72" t="n">
-        <v>0.17</v>
+        <v>1.0473</v>
       </c>
       <c r="G72" t="n">
-        <v>65.64511392000004</v>
+        <v>-28.12138607999996</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K72" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3010,32 +3216,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>61000</v>
+        <v>57250</v>
       </c>
       <c r="C73" t="n">
-        <v>61300</v>
+        <v>57250</v>
       </c>
       <c r="D73" t="n">
-        <v>61300</v>
+        <v>57250</v>
       </c>
       <c r="E73" t="n">
-        <v>61000</v>
+        <v>57250</v>
       </c>
       <c r="F73" t="n">
-        <v>7.4775</v>
+        <v>2.0006</v>
       </c>
       <c r="G73" t="n">
-        <v>73.12261392000005</v>
+        <v>-28.12138607999996</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>57250</v>
+      </c>
+      <c r="K73" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3046,32 +3260,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>61400</v>
+        <v>57300</v>
       </c>
       <c r="C74" t="n">
-        <v>61400</v>
+        <v>57300</v>
       </c>
       <c r="D74" t="n">
-        <v>61400</v>
+        <v>57300</v>
       </c>
       <c r="E74" t="n">
-        <v>61400</v>
+        <v>57300</v>
       </c>
       <c r="F74" t="n">
-        <v>0.405</v>
+        <v>12.6676</v>
       </c>
       <c r="G74" t="n">
-        <v>73.52761392000005</v>
+        <v>-15.45378607999996</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>57250</v>
+      </c>
+      <c r="K74" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3082,32 +3304,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>61050</v>
+        <v>57300</v>
       </c>
       <c r="C75" t="n">
-        <v>62400</v>
+        <v>57600</v>
       </c>
       <c r="D75" t="n">
-        <v>62400</v>
+        <v>57600</v>
       </c>
       <c r="E75" t="n">
-        <v>61050</v>
+        <v>57300</v>
       </c>
       <c r="F75" t="n">
-        <v>35.7616</v>
+        <v>1.5</v>
       </c>
       <c r="G75" t="n">
-        <v>109.2892139200001</v>
+        <v>-13.95378607999996</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>57300</v>
+      </c>
+      <c r="K75" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3118,32 +3348,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>61850</v>
+        <v>58000</v>
       </c>
       <c r="C76" t="n">
-        <v>62200</v>
+        <v>58000</v>
       </c>
       <c r="D76" t="n">
-        <v>62700</v>
+        <v>58000</v>
       </c>
       <c r="E76" t="n">
-        <v>61850</v>
+        <v>58000</v>
       </c>
       <c r="F76" t="n">
-        <v>4.0814</v>
+        <v>0.1</v>
       </c>
       <c r="G76" t="n">
-        <v>105.20781392</v>
+        <v>-13.85378607999996</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>57600</v>
+      </c>
+      <c r="K76" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3154,32 +3392,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>62650</v>
+        <v>58000</v>
       </c>
       <c r="C77" t="n">
-        <v>63400</v>
+        <v>58350</v>
       </c>
       <c r="D77" t="n">
-        <v>63400</v>
+        <v>58350</v>
       </c>
       <c r="E77" t="n">
-        <v>62650</v>
+        <v>58000</v>
       </c>
       <c r="F77" t="n">
-        <v>80.82729771</v>
+        <v>0.6403</v>
       </c>
       <c r="G77" t="n">
-        <v>186.03511163</v>
+        <v>-13.21348607999996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>58000</v>
+      </c>
+      <c r="K77" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3190,32 +3436,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>62950</v>
+        <v>58350</v>
       </c>
       <c r="C78" t="n">
-        <v>63400</v>
+        <v>58350</v>
       </c>
       <c r="D78" t="n">
-        <v>63400</v>
+        <v>58350</v>
       </c>
       <c r="E78" t="n">
-        <v>61850</v>
+        <v>58350</v>
       </c>
       <c r="F78" t="n">
-        <v>86.19157147</v>
+        <v>3.3127</v>
       </c>
       <c r="G78" t="n">
-        <v>186.03511163</v>
+        <v>-13.21348607999996</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3226,22 +3478,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>62000</v>
+        <v>57900</v>
       </c>
       <c r="C79" t="n">
-        <v>62000</v>
+        <v>57900</v>
       </c>
       <c r="D79" t="n">
-        <v>62000</v>
+        <v>57900</v>
       </c>
       <c r="E79" t="n">
-        <v>62000</v>
+        <v>57900</v>
       </c>
       <c r="F79" t="n">
-        <v>6.4987</v>
+        <v>26.9565</v>
       </c>
       <c r="G79" t="n">
-        <v>179.53641163</v>
+        <v>-40.16998607999996</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3250,8 +3502,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3262,22 +3520,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>62650</v>
+        <v>58300</v>
       </c>
       <c r="C80" t="n">
-        <v>62650</v>
+        <v>58300</v>
       </c>
       <c r="D80" t="n">
-        <v>62650</v>
+        <v>58300</v>
       </c>
       <c r="E80" t="n">
-        <v>62650</v>
+        <v>58300</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9693000000000001</v>
+        <v>4.0549</v>
       </c>
       <c r="G80" t="n">
-        <v>180.50571163</v>
+        <v>-36.11508607999995</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3286,8 +3544,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3298,22 +3562,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>62050</v>
+        <v>58750</v>
       </c>
       <c r="C81" t="n">
-        <v>62050</v>
+        <v>58750</v>
       </c>
       <c r="D81" t="n">
-        <v>62050</v>
+        <v>58750</v>
       </c>
       <c r="E81" t="n">
-        <v>62050</v>
+        <v>58750</v>
       </c>
       <c r="F81" t="n">
-        <v>23.525</v>
+        <v>4.17</v>
       </c>
       <c r="G81" t="n">
-        <v>156.98071163</v>
+        <v>-31.94508607999995</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3322,8 +3586,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3334,22 +3604,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>62200</v>
+        <v>58800</v>
       </c>
       <c r="C82" t="n">
-        <v>62200</v>
+        <v>58950</v>
       </c>
       <c r="D82" t="n">
-        <v>62200</v>
+        <v>58950</v>
       </c>
       <c r="E82" t="n">
-        <v>62200</v>
+        <v>58750</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>10.3685</v>
       </c>
       <c r="G82" t="n">
-        <v>160.98071163</v>
+        <v>-21.57658607999996</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3358,8 +3628,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3370,22 +3646,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>62200</v>
+        <v>58950</v>
       </c>
       <c r="C83" t="n">
-        <v>62400</v>
+        <v>58950</v>
       </c>
       <c r="D83" t="n">
-        <v>62650</v>
+        <v>58950</v>
       </c>
       <c r="E83" t="n">
-        <v>62200</v>
+        <v>58950</v>
       </c>
       <c r="F83" t="n">
-        <v>17.1089</v>
+        <v>0.02</v>
       </c>
       <c r="G83" t="n">
-        <v>178.08961163</v>
+        <v>-21.57658607999996</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3394,8 +3670,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3406,32 +3688,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>62050</v>
+        <v>58650</v>
       </c>
       <c r="C84" t="n">
-        <v>61900</v>
+        <v>58650</v>
       </c>
       <c r="D84" t="n">
-        <v>62050</v>
+        <v>58650</v>
       </c>
       <c r="E84" t="n">
-        <v>61900</v>
+        <v>58650</v>
       </c>
       <c r="F84" t="n">
-        <v>33.1831</v>
+        <v>0.0512</v>
       </c>
       <c r="G84" t="n">
-        <v>144.90651163</v>
+        <v>-21.62778607999996</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3442,32 +3730,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>61900</v>
+        <v>58700</v>
       </c>
       <c r="C85" t="n">
-        <v>62150</v>
+        <v>59000</v>
       </c>
       <c r="D85" t="n">
-        <v>62150</v>
+        <v>59000</v>
       </c>
       <c r="E85" t="n">
-        <v>61900</v>
+        <v>58650</v>
       </c>
       <c r="F85" t="n">
-        <v>19.7443</v>
+        <v>38.9574</v>
       </c>
       <c r="G85" t="n">
-        <v>164.65081163</v>
+        <v>17.32961392000004</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3478,32 +3772,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>62150</v>
+        <v>58800</v>
       </c>
       <c r="C86" t="n">
-        <v>61850</v>
+        <v>58900</v>
       </c>
       <c r="D86" t="n">
-        <v>62150</v>
+        <v>58900</v>
       </c>
       <c r="E86" t="n">
-        <v>61850</v>
+        <v>58800</v>
       </c>
       <c r="F86" t="n">
-        <v>16.4272</v>
+        <v>60</v>
       </c>
       <c r="G86" t="n">
-        <v>148.2236116300001</v>
+        <v>-42.67038607999996</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3514,32 +3814,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>62650</v>
+        <v>58950</v>
       </c>
       <c r="C87" t="n">
-        <v>63000</v>
+        <v>58950</v>
       </c>
       <c r="D87" t="n">
-        <v>63000</v>
+        <v>58950</v>
       </c>
       <c r="E87" t="n">
-        <v>62650</v>
+        <v>58950</v>
       </c>
       <c r="F87" t="n">
-        <v>17.0264</v>
+        <v>33.7778</v>
       </c>
       <c r="G87" t="n">
-        <v>165.25001163</v>
+        <v>-8.892586079999958</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3550,32 +3856,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>62500</v>
+        <v>59200</v>
       </c>
       <c r="C88" t="n">
-        <v>62500</v>
+        <v>59200</v>
       </c>
       <c r="D88" t="n">
-        <v>62500</v>
+        <v>59200</v>
       </c>
       <c r="E88" t="n">
-        <v>62500</v>
+        <v>59200</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0192</v>
+        <v>2.7008</v>
       </c>
       <c r="G88" t="n">
-        <v>165.23081163</v>
+        <v>-6.191786079999958</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3586,32 +3898,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>62400</v>
+        <v>59200</v>
       </c>
       <c r="C89" t="n">
-        <v>62350</v>
+        <v>59200</v>
       </c>
       <c r="D89" t="n">
-        <v>62400</v>
+        <v>59200</v>
       </c>
       <c r="E89" t="n">
-        <v>62350</v>
+        <v>59200</v>
       </c>
       <c r="F89" t="n">
-        <v>8</v>
+        <v>1.3464</v>
       </c>
       <c r="G89" t="n">
-        <v>157.23081163</v>
+        <v>-6.191786079999958</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3622,32 +3940,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>62300</v>
+        <v>59200</v>
       </c>
       <c r="C90" t="n">
-        <v>62450</v>
+        <v>59200</v>
       </c>
       <c r="D90" t="n">
-        <v>62550</v>
+        <v>59200</v>
       </c>
       <c r="E90" t="n">
-        <v>62300</v>
+        <v>59200</v>
       </c>
       <c r="F90" t="n">
-        <v>12.025</v>
+        <v>0.3399</v>
       </c>
       <c r="G90" t="n">
-        <v>169.25581163</v>
+        <v>-6.191786079999958</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3658,32 +3982,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>62450</v>
+        <v>59450</v>
       </c>
       <c r="C91" t="n">
-        <v>62450</v>
+        <v>59450</v>
       </c>
       <c r="D91" t="n">
-        <v>62450</v>
+        <v>59450</v>
       </c>
       <c r="E91" t="n">
-        <v>62450</v>
+        <v>59450</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>4.17</v>
       </c>
       <c r="G91" t="n">
-        <v>169.25581163</v>
+        <v>-2.021786079999958</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3694,32 +4024,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>62550</v>
+        <v>59500</v>
       </c>
       <c r="C92" t="n">
-        <v>62800</v>
+        <v>59500</v>
       </c>
       <c r="D92" t="n">
-        <v>62800</v>
+        <v>59500</v>
       </c>
       <c r="E92" t="n">
-        <v>62550</v>
+        <v>59500</v>
       </c>
       <c r="F92" t="n">
-        <v>2.1687</v>
+        <v>1.0289</v>
       </c>
       <c r="G92" t="n">
-        <v>171.42451163</v>
+        <v>-0.9928860799999584</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3730,32 +4066,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>62800</v>
+        <v>59500</v>
       </c>
       <c r="C93" t="n">
-        <v>62800</v>
+        <v>59500</v>
       </c>
       <c r="D93" t="n">
-        <v>62800</v>
+        <v>59500</v>
       </c>
       <c r="E93" t="n">
-        <v>62800</v>
+        <v>59500</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5</v>
+        <v>5.1423</v>
       </c>
       <c r="G93" t="n">
-        <v>171.42451163</v>
+        <v>-0.9928860799999584</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3766,32 +4108,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>62900</v>
+        <v>59500</v>
       </c>
       <c r="C94" t="n">
-        <v>62900</v>
+        <v>59500</v>
       </c>
       <c r="D94" t="n">
-        <v>62900</v>
+        <v>59500</v>
       </c>
       <c r="E94" t="n">
-        <v>62900</v>
+        <v>59500</v>
       </c>
       <c r="F94" t="n">
-        <v>1.0022</v>
+        <v>54.8513</v>
       </c>
       <c r="G94" t="n">
-        <v>172.42671163</v>
+        <v>-0.9928860799999584</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3802,32 +4150,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>62000</v>
+        <v>59350</v>
       </c>
       <c r="C95" t="n">
-        <v>61900</v>
+        <v>59350</v>
       </c>
       <c r="D95" t="n">
-        <v>62000</v>
+        <v>59350</v>
       </c>
       <c r="E95" t="n">
-        <v>61900</v>
+        <v>59350</v>
       </c>
       <c r="F95" t="n">
-        <v>7.0565</v>
+        <v>0.0253</v>
       </c>
       <c r="G95" t="n">
-        <v>165.37021163</v>
+        <v>-1.018186079999958</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3838,32 +4192,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>61900</v>
+        <v>59600</v>
       </c>
       <c r="C96" t="n">
-        <v>61600</v>
+        <v>59850</v>
       </c>
       <c r="D96" t="n">
-        <v>61900</v>
+        <v>59850</v>
       </c>
       <c r="E96" t="n">
-        <v>61600</v>
+        <v>59600</v>
       </c>
       <c r="F96" t="n">
-        <v>108.2254</v>
+        <v>13.9157</v>
       </c>
       <c r="G96" t="n">
-        <v>57.14481163000004</v>
+        <v>12.89751392000004</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3874,32 +4234,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>62150</v>
+        <v>59650</v>
       </c>
       <c r="C97" t="n">
-        <v>62150</v>
+        <v>59650</v>
       </c>
       <c r="D97" t="n">
-        <v>62150</v>
+        <v>59650</v>
       </c>
       <c r="E97" t="n">
-        <v>62150</v>
+        <v>59650</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0.0168</v>
       </c>
       <c r="G97" t="n">
-        <v>58.14481163000004</v>
+        <v>12.88071392000004</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3910,22 +4276,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>61900</v>
+        <v>60000</v>
       </c>
       <c r="C98" t="n">
-        <v>61850</v>
+        <v>60400</v>
       </c>
       <c r="D98" t="n">
-        <v>61900</v>
+        <v>60500</v>
       </c>
       <c r="E98" t="n">
-        <v>61850</v>
+        <v>60000</v>
       </c>
       <c r="F98" t="n">
-        <v>6.5</v>
+        <v>50.659</v>
       </c>
       <c r="G98" t="n">
-        <v>51.64481163000004</v>
+        <v>63.53971392000004</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3934,8 +4300,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3946,32 +4318,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>61850</v>
+        <v>60150</v>
       </c>
       <c r="C99" t="n">
-        <v>61850</v>
+        <v>60550</v>
       </c>
       <c r="D99" t="n">
-        <v>61850</v>
+        <v>60550</v>
       </c>
       <c r="E99" t="n">
-        <v>61850</v>
+        <v>60150</v>
       </c>
       <c r="F99" t="n">
-        <v>8.4674</v>
+        <v>2.1054</v>
       </c>
       <c r="G99" t="n">
-        <v>51.64481163000004</v>
+        <v>65.64511392000004</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3982,22 +4360,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>62000</v>
+        <v>60550</v>
       </c>
       <c r="C100" t="n">
-        <v>62000</v>
+        <v>60550</v>
       </c>
       <c r="D100" t="n">
-        <v>62000</v>
+        <v>60550</v>
       </c>
       <c r="E100" t="n">
-        <v>62000</v>
+        <v>60550</v>
       </c>
       <c r="F100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>55.64481163000004</v>
+        <v>65.64511392000004</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4006,8 +4384,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4018,32 +4402,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>62100</v>
+        <v>60550</v>
       </c>
       <c r="C101" t="n">
-        <v>62100</v>
+        <v>60550</v>
       </c>
       <c r="D101" t="n">
-        <v>62100</v>
+        <v>60550</v>
       </c>
       <c r="E101" t="n">
-        <v>62100</v>
+        <v>60550</v>
       </c>
       <c r="F101" t="n">
-        <v>1.9354</v>
+        <v>0.17</v>
       </c>
       <c r="G101" t="n">
-        <v>57.58021163000004</v>
+        <v>65.64511392000004</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4054,22 +4444,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>62550</v>
+        <v>61000</v>
       </c>
       <c r="C102" t="n">
-        <v>62550</v>
+        <v>61300</v>
       </c>
       <c r="D102" t="n">
-        <v>62550</v>
+        <v>61300</v>
       </c>
       <c r="E102" t="n">
-        <v>62550</v>
+        <v>61000</v>
       </c>
       <c r="F102" t="n">
-        <v>2.934</v>
+        <v>7.4775</v>
       </c>
       <c r="G102" t="n">
-        <v>60.51421163000003</v>
+        <v>73.12261392000005</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4078,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4090,32 +4486,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>62550</v>
+        <v>61400</v>
       </c>
       <c r="C103" t="n">
-        <v>62650</v>
+        <v>61400</v>
       </c>
       <c r="D103" t="n">
-        <v>62650</v>
+        <v>61400</v>
       </c>
       <c r="E103" t="n">
-        <v>62550</v>
+        <v>61400</v>
       </c>
       <c r="F103" t="n">
-        <v>1.4303</v>
+        <v>0.405</v>
       </c>
       <c r="G103" t="n">
-        <v>61.94451163000004</v>
+        <v>73.52761392000005</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4126,32 +4528,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>62800</v>
+        <v>61050</v>
       </c>
       <c r="C104" t="n">
-        <v>62800</v>
+        <v>62400</v>
       </c>
       <c r="D104" t="n">
-        <v>62800</v>
+        <v>62400</v>
       </c>
       <c r="E104" t="n">
-        <v>62800</v>
+        <v>61050</v>
       </c>
       <c r="F104" t="n">
-        <v>2.6119</v>
+        <v>35.7616</v>
       </c>
       <c r="G104" t="n">
-        <v>64.55641163000004</v>
+        <v>109.2892139200001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4162,32 +4570,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>63000</v>
+        <v>61850</v>
       </c>
       <c r="C105" t="n">
-        <v>63000</v>
+        <v>62200</v>
       </c>
       <c r="D105" t="n">
-        <v>63000</v>
+        <v>62700</v>
       </c>
       <c r="E105" t="n">
-        <v>63000</v>
+        <v>61850</v>
       </c>
       <c r="F105" t="n">
-        <v>18.4555</v>
+        <v>4.0814</v>
       </c>
       <c r="G105" t="n">
-        <v>83.01191163000004</v>
+        <v>105.20781392</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4198,32 +4612,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>63100</v>
+        <v>62650</v>
       </c>
       <c r="C106" t="n">
-        <v>63100</v>
+        <v>63400</v>
       </c>
       <c r="D106" t="n">
-        <v>63100</v>
+        <v>63400</v>
       </c>
       <c r="E106" t="n">
-        <v>63100</v>
+        <v>62650</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1</v>
+        <v>80.82729771</v>
       </c>
       <c r="G106" t="n">
-        <v>83.11191163000004</v>
+        <v>186.03511163</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4234,7 +4654,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="C107" t="n">
         <v>63400</v>
@@ -4243,27 +4663,27 @@
         <v>63400</v>
       </c>
       <c r="E107" t="n">
-        <v>63100</v>
+        <v>61850</v>
       </c>
       <c r="F107" t="n">
-        <v>6.9</v>
+        <v>86.19157147</v>
       </c>
       <c r="G107" t="n">
-        <v>90.01191163000004</v>
+        <v>186.03511163</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>63100</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>57250</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M107" t="n">
@@ -4276,33 +4696,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>63450</v>
+        <v>62000</v>
       </c>
       <c r="C108" t="n">
-        <v>63500</v>
+        <v>62000</v>
       </c>
       <c r="D108" t="n">
-        <v>63500</v>
+        <v>62000</v>
       </c>
       <c r="E108" t="n">
-        <v>63450</v>
+        <v>62000</v>
       </c>
       <c r="F108" t="n">
-        <v>1.525</v>
+        <v>6.4987</v>
       </c>
       <c r="G108" t="n">
-        <v>91.53691163000005</v>
+        <v>179.53641163</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>63400</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>57250</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4318,33 +4738,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>63500</v>
+        <v>62650</v>
       </c>
       <c r="C109" t="n">
-        <v>63300</v>
+        <v>62650</v>
       </c>
       <c r="D109" t="n">
-        <v>63600</v>
+        <v>62650</v>
       </c>
       <c r="E109" t="n">
-        <v>63300</v>
+        <v>62650</v>
       </c>
       <c r="F109" t="n">
-        <v>14.0487</v>
+        <v>0.9693000000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>77.48821163000005</v>
+        <v>180.50571163</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>63500</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>57250</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4360,31 +4780,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>63600</v>
+        <v>62050</v>
       </c>
       <c r="C110" t="n">
-        <v>63600</v>
+        <v>62050</v>
       </c>
       <c r="D110" t="n">
-        <v>63600</v>
+        <v>62050</v>
       </c>
       <c r="E110" t="n">
-        <v>63600</v>
+        <v>62050</v>
       </c>
       <c r="F110" t="n">
-        <v>2.9027</v>
+        <v>23.525</v>
       </c>
       <c r="G110" t="n">
-        <v>80.39091163000005</v>
+        <v>156.98071163</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>57250</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4400,31 +4822,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>63600</v>
+        <v>62200</v>
       </c>
       <c r="C111" t="n">
-        <v>63800</v>
+        <v>62200</v>
       </c>
       <c r="D111" t="n">
-        <v>63800</v>
+        <v>62200</v>
       </c>
       <c r="E111" t="n">
-        <v>63600</v>
+        <v>62200</v>
       </c>
       <c r="F111" t="n">
-        <v>8.0701</v>
+        <v>4</v>
       </c>
       <c r="G111" t="n">
-        <v>88.46101163000004</v>
+        <v>160.98071163</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>57250</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4440,31 +4864,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>63800</v>
+        <v>62200</v>
       </c>
       <c r="C112" t="n">
-        <v>63800</v>
+        <v>62400</v>
       </c>
       <c r="D112" t="n">
-        <v>63800</v>
+        <v>62650</v>
       </c>
       <c r="E112" t="n">
-        <v>63800</v>
+        <v>62200</v>
       </c>
       <c r="F112" t="n">
-        <v>3.1775</v>
+        <v>17.1089</v>
       </c>
       <c r="G112" t="n">
-        <v>88.46101163000004</v>
+        <v>178.08961163</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>57250</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4480,31 +4906,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>63850</v>
+        <v>62050</v>
       </c>
       <c r="C113" t="n">
-        <v>63900</v>
+        <v>61900</v>
       </c>
       <c r="D113" t="n">
-        <v>63900</v>
+        <v>62050</v>
       </c>
       <c r="E113" t="n">
-        <v>63850</v>
+        <v>61900</v>
       </c>
       <c r="F113" t="n">
-        <v>22.0573</v>
+        <v>33.1831</v>
       </c>
       <c r="G113" t="n">
-        <v>110.51831163</v>
+        <v>144.90651163</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>57250</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4520,31 +4948,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>64000</v>
+        <v>61900</v>
       </c>
       <c r="C114" t="n">
-        <v>64450</v>
+        <v>62150</v>
       </c>
       <c r="D114" t="n">
-        <v>64450</v>
+        <v>62150</v>
       </c>
       <c r="E114" t="n">
-        <v>64000</v>
+        <v>61900</v>
       </c>
       <c r="F114" t="n">
-        <v>5.4541</v>
+        <v>19.7443</v>
       </c>
       <c r="G114" t="n">
-        <v>115.97241163</v>
+        <v>164.65081163</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>57250</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4560,40 +4990,1202 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>62150</v>
+      </c>
+      <c r="C115" t="n">
+        <v>61850</v>
+      </c>
+      <c r="D115" t="n">
+        <v>62150</v>
+      </c>
+      <c r="E115" t="n">
+        <v>61850</v>
+      </c>
+      <c r="F115" t="n">
+        <v>16.4272</v>
+      </c>
+      <c r="G115" t="n">
+        <v>148.2236116300001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>62650</v>
+      </c>
+      <c r="C116" t="n">
+        <v>63000</v>
+      </c>
+      <c r="D116" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E116" t="n">
+        <v>62650</v>
+      </c>
+      <c r="F116" t="n">
+        <v>17.0264</v>
+      </c>
+      <c r="G116" t="n">
+        <v>165.25001163</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>62500</v>
+      </c>
+      <c r="C117" t="n">
+        <v>62500</v>
+      </c>
+      <c r="D117" t="n">
+        <v>62500</v>
+      </c>
+      <c r="E117" t="n">
+        <v>62500</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0192</v>
+      </c>
+      <c r="G117" t="n">
+        <v>165.23081163</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>62400</v>
+      </c>
+      <c r="C118" t="n">
+        <v>62350</v>
+      </c>
+      <c r="D118" t="n">
+        <v>62400</v>
+      </c>
+      <c r="E118" t="n">
+        <v>62350</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8</v>
+      </c>
+      <c r="G118" t="n">
+        <v>157.23081163</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>62300</v>
+      </c>
+      <c r="C119" t="n">
+        <v>62450</v>
+      </c>
+      <c r="D119" t="n">
+        <v>62550</v>
+      </c>
+      <c r="E119" t="n">
+        <v>62300</v>
+      </c>
+      <c r="F119" t="n">
+        <v>12.025</v>
+      </c>
+      <c r="G119" t="n">
+        <v>169.25581163</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>62450</v>
+      </c>
+      <c r="C120" t="n">
+        <v>62450</v>
+      </c>
+      <c r="D120" t="n">
+        <v>62450</v>
+      </c>
+      <c r="E120" t="n">
+        <v>62450</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2</v>
+      </c>
+      <c r="G120" t="n">
+        <v>169.25581163</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>62550</v>
+      </c>
+      <c r="C121" t="n">
+        <v>62800</v>
+      </c>
+      <c r="D121" t="n">
+        <v>62800</v>
+      </c>
+      <c r="E121" t="n">
+        <v>62550</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.1687</v>
+      </c>
+      <c r="G121" t="n">
+        <v>171.42451163</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C122" t="n">
+        <v>62800</v>
+      </c>
+      <c r="D122" t="n">
+        <v>62800</v>
+      </c>
+      <c r="E122" t="n">
+        <v>62800</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G122" t="n">
+        <v>171.42451163</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C123" t="n">
+        <v>62900</v>
+      </c>
+      <c r="D123" t="n">
+        <v>62900</v>
+      </c>
+      <c r="E123" t="n">
+        <v>62900</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.0022</v>
+      </c>
+      <c r="G123" t="n">
+        <v>172.42671163</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>62000</v>
+      </c>
+      <c r="C124" t="n">
+        <v>61900</v>
+      </c>
+      <c r="D124" t="n">
+        <v>62000</v>
+      </c>
+      <c r="E124" t="n">
+        <v>61900</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7.0565</v>
+      </c>
+      <c r="G124" t="n">
+        <v>165.37021163</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>61900</v>
+      </c>
+      <c r="C125" t="n">
+        <v>61600</v>
+      </c>
+      <c r="D125" t="n">
+        <v>61900</v>
+      </c>
+      <c r="E125" t="n">
+        <v>61600</v>
+      </c>
+      <c r="F125" t="n">
+        <v>108.2254</v>
+      </c>
+      <c r="G125" t="n">
+        <v>57.14481163000004</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>62150</v>
+      </c>
+      <c r="C126" t="n">
+        <v>62150</v>
+      </c>
+      <c r="D126" t="n">
+        <v>62150</v>
+      </c>
+      <c r="E126" t="n">
+        <v>62150</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>58.14481163000004</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>61900</v>
+      </c>
+      <c r="C127" t="n">
+        <v>61850</v>
+      </c>
+      <c r="D127" t="n">
+        <v>61900</v>
+      </c>
+      <c r="E127" t="n">
+        <v>61850</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>51.64481163000004</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>61850</v>
+      </c>
+      <c r="C128" t="n">
+        <v>61850</v>
+      </c>
+      <c r="D128" t="n">
+        <v>61850</v>
+      </c>
+      <c r="E128" t="n">
+        <v>61850</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8.4674</v>
+      </c>
+      <c r="G128" t="n">
+        <v>51.64481163000004</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>62000</v>
+      </c>
+      <c r="C129" t="n">
+        <v>62000</v>
+      </c>
+      <c r="D129" t="n">
+        <v>62000</v>
+      </c>
+      <c r="E129" t="n">
+        <v>62000</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4</v>
+      </c>
+      <c r="G129" t="n">
+        <v>55.64481163000004</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>62100</v>
+      </c>
+      <c r="C130" t="n">
+        <v>62100</v>
+      </c>
+      <c r="D130" t="n">
+        <v>62100</v>
+      </c>
+      <c r="E130" t="n">
+        <v>62100</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.9354</v>
+      </c>
+      <c r="G130" t="n">
+        <v>57.58021163000004</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>62550</v>
+      </c>
+      <c r="C131" t="n">
+        <v>62550</v>
+      </c>
+      <c r="D131" t="n">
+        <v>62550</v>
+      </c>
+      <c r="E131" t="n">
+        <v>62550</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="G131" t="n">
+        <v>60.51421163000003</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>62550</v>
+      </c>
+      <c r="C132" t="n">
+        <v>62650</v>
+      </c>
+      <c r="D132" t="n">
+        <v>62650</v>
+      </c>
+      <c r="E132" t="n">
+        <v>62550</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.4303</v>
+      </c>
+      <c r="G132" t="n">
+        <v>61.94451163000004</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C133" t="n">
+        <v>62800</v>
+      </c>
+      <c r="D133" t="n">
+        <v>62800</v>
+      </c>
+      <c r="E133" t="n">
+        <v>62800</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.6119</v>
+      </c>
+      <c r="G133" t="n">
+        <v>64.55641163000004</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C134" t="n">
+        <v>63000</v>
+      </c>
+      <c r="D134" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E134" t="n">
+        <v>63000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>18.4555</v>
+      </c>
+      <c r="G134" t="n">
+        <v>83.01191163000004</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>57250</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1.095436681222707</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1.021052631578947</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>63100</v>
+      </c>
+      <c r="C135" t="n">
+        <v>63100</v>
+      </c>
+      <c r="D135" t="n">
+        <v>63100</v>
+      </c>
+      <c r="E135" t="n">
+        <v>63100</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>83.11191163000004</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>63100</v>
+      </c>
+      <c r="C136" t="n">
+        <v>63400</v>
+      </c>
+      <c r="D136" t="n">
+        <v>63400</v>
+      </c>
+      <c r="E136" t="n">
+        <v>63100</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G136" t="n">
+        <v>90.01191163000004</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>63450</v>
+      </c>
+      <c r="C137" t="n">
+        <v>63500</v>
+      </c>
+      <c r="D137" t="n">
+        <v>63500</v>
+      </c>
+      <c r="E137" t="n">
+        <v>63450</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="G137" t="n">
+        <v>91.53691163000005</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>63500</v>
+      </c>
+      <c r="C138" t="n">
+        <v>63300</v>
+      </c>
+      <c r="D138" t="n">
+        <v>63600</v>
+      </c>
+      <c r="E138" t="n">
+        <v>63300</v>
+      </c>
+      <c r="F138" t="n">
+        <v>14.0487</v>
+      </c>
+      <c r="G138" t="n">
+        <v>77.48821163000005</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>63600</v>
+      </c>
+      <c r="C139" t="n">
+        <v>63600</v>
+      </c>
+      <c r="D139" t="n">
+        <v>63600</v>
+      </c>
+      <c r="E139" t="n">
+        <v>63600</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2.9027</v>
+      </c>
+      <c r="G139" t="n">
+        <v>80.39091163000005</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>63600</v>
+      </c>
+      <c r="C140" t="n">
+        <v>63800</v>
+      </c>
+      <c r="D140" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E140" t="n">
+        <v>63600</v>
+      </c>
+      <c r="F140" t="n">
+        <v>8.0701</v>
+      </c>
+      <c r="G140" t="n">
+        <v>88.46101163000004</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>63800</v>
+      </c>
+      <c r="C141" t="n">
+        <v>63800</v>
+      </c>
+      <c r="D141" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E141" t="n">
+        <v>63800</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.1775</v>
+      </c>
+      <c r="G141" t="n">
+        <v>88.46101163000004</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>63850</v>
+      </c>
+      <c r="C142" t="n">
+        <v>63900</v>
+      </c>
+      <c r="D142" t="n">
+        <v>63900</v>
+      </c>
+      <c r="E142" t="n">
+        <v>63850</v>
+      </c>
+      <c r="F142" t="n">
+        <v>22.0573</v>
+      </c>
+      <c r="G142" t="n">
+        <v>110.51831163</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C143" t="n">
+        <v>64450</v>
+      </c>
+      <c r="D143" t="n">
+        <v>64450</v>
+      </c>
+      <c r="E143" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5.4541</v>
+      </c>
+      <c r="G143" t="n">
+        <v>115.97241163</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
         <v>64500</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C144" t="n">
         <v>64500</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D144" t="n">
         <v>64500</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E144" t="n">
         <v>64500</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F144" t="n">
         <v>23.3321</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G144" t="n">
         <v>139.30451163</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-11 BackTest DASH.xlsx
+++ b/BackTest/2020-01-11 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-240.8612</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>-250.6691</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>57450</v>
+      </c>
+      <c r="J3" t="n">
+        <v>57450</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>-250.6691</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>57400</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,23 @@
         <v>-257.7825</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>57400</v>
+      </c>
+      <c r="J5" t="n">
+        <v>57450</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +603,19 @@
         <v>-238.2158</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>57300</v>
+      </c>
+      <c r="J6" t="n">
+        <v>57300</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +640,23 @@
         <v>-233.2158</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>57700</v>
+      </c>
+      <c r="J7" t="n">
+        <v>57300</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +681,23 @@
         <v>72.61240000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>57850</v>
+      </c>
+      <c r="J8" t="n">
+        <v>57300</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +724,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +757,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +790,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +823,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +856,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +889,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +922,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +955,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +986,19 @@
         <v>165.7334</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="J17" t="n">
+        <v>58100</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1025,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1062,23 @@
         <v>89.09970000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>58000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1105,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1142,23 @@
         <v>89.09970000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>58000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1185,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1224,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1261,23 @@
         <v>89.04511392000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>57800</v>
+      </c>
+      <c r="J24" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1302,23 @@
         <v>89.02961392</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>57750</v>
+      </c>
+      <c r="J25" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1343,23 @@
         <v>83.79411392</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>57650</v>
+      </c>
+      <c r="J26" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1384,23 @@
         <v>83.79411392</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>57500</v>
+      </c>
+      <c r="J27" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1427,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1464,23 @@
         <v>83.80771392000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>57400</v>
+      </c>
+      <c r="J29" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1505,23 @@
         <v>83.80771392000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>57450</v>
+      </c>
+      <c r="J30" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1546,23 @@
         <v>83.70771392000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>57450</v>
+      </c>
+      <c r="J31" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1587,23 @@
         <v>83.69221392000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>57400</v>
+      </c>
+      <c r="J32" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1628,23 @@
         <v>81.61911392000002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>57300</v>
+      </c>
+      <c r="J33" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1669,23 @@
         <v>81.61911392000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>57150</v>
+      </c>
+      <c r="J34" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1710,23 @@
         <v>81.61911392000002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>57150</v>
+      </c>
+      <c r="J35" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1751,23 @@
         <v>77.70651392000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>57150</v>
+      </c>
+      <c r="J36" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,22 +1792,23 @@
         <v>66.90651392000002</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>57100</v>
       </c>
       <c r="J37" t="n">
-        <v>57100</v>
-      </c>
-      <c r="K37" t="n">
-        <v>57100</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1756,26 +1833,23 @@
         <v>66.90651392000002</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>57050</v>
       </c>
       <c r="J38" t="n">
-        <v>57050</v>
-      </c>
-      <c r="K38" t="n">
-        <v>57100</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1802,22 +1876,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>57100</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,18 +1913,23 @@
         <v>67.60271392000003</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>57100</v>
+      </c>
+      <c r="J40" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1880,16 +1956,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1916,16 +1995,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1952,16 +2034,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1986,22 +2071,21 @@
         <v>57.24411392000003</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
         <v>0</v>
       </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>57250</v>
-      </c>
-      <c r="K44" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2026,26 +2110,21 @@
         <v>55.58021392000003</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
         <v>0</v>
       </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K45" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2070,26 +2149,21 @@
         <v>45.53531392000003</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
         <v>0</v>
       </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>57050</v>
-      </c>
-      <c r="K46" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2114,26 +2188,23 @@
         <v>35.48201392000003</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>57000</v>
       </c>
       <c r="J47" t="n">
-        <v>57000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2158,26 +2229,21 @@
         <v>35.48201392000003</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
         <v>0</v>
       </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>56950</v>
-      </c>
-      <c r="K48" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2202,26 +2268,21 @@
         <v>35.48201392000003</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
         <v>0</v>
       </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>56950</v>
-      </c>
-      <c r="K49" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2246,26 +2307,21 @@
         <v>29.11591392000003</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
         <v>0</v>
       </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>56950</v>
-      </c>
-      <c r="K50" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2290,26 +2346,21 @@
         <v>29.11591392000003</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
         <v>0</v>
       </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>56900</v>
-      </c>
-      <c r="K51" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2334,26 +2385,21 @@
         <v>29.98991392000003</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
         <v>0</v>
       </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>56900</v>
-      </c>
-      <c r="K52" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2378,26 +2424,21 @@
         <v>30.23631392000003</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
         <v>0</v>
       </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>57000</v>
-      </c>
-      <c r="K53" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2422,26 +2463,23 @@
         <v>30.23631392000003</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>57050</v>
       </c>
       <c r="J54" t="n">
-        <v>57050</v>
-      </c>
-      <c r="K54" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2466,26 +2504,23 @@
         <v>30.23631392000003</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>57050</v>
       </c>
       <c r="J55" t="n">
-        <v>57050</v>
-      </c>
-      <c r="K55" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2510,26 +2545,21 @@
         <v>25.01311392000003</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
         <v>0</v>
       </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>57050</v>
-      </c>
-      <c r="K56" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2554,26 +2584,21 @@
         <v>37.11311392000003</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
         <v>0</v>
       </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>56900</v>
-      </c>
-      <c r="K57" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2598,26 +2623,21 @@
         <v>37.13061392000003</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
         <v>0</v>
       </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>57300</v>
-      </c>
-      <c r="K58" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2644,22 +2664,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2686,22 +2703,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2728,22 +2742,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2770,22 +2781,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2812,22 +2820,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2854,22 +2859,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2896,22 +2898,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2938,22 +2937,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2980,22 +2976,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3022,22 +3015,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3064,22 +3054,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3104,24 +3091,23 @@
         <v>-29.93808607999996</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>57150</v>
+      </c>
+      <c r="J70" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3146,26 +3132,23 @@
         <v>-29.16868607999996</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>56950</v>
       </c>
       <c r="J71" t="n">
-        <v>56950</v>
-      </c>
-      <c r="K71" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3190,26 +3173,23 @@
         <v>-28.12138607999996</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>57200</v>
       </c>
       <c r="J72" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K72" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3234,26 +3214,23 @@
         <v>-28.12138607999996</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>57250</v>
       </c>
       <c r="J73" t="n">
-        <v>57250</v>
-      </c>
-      <c r="K73" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3278,26 +3255,23 @@
         <v>-15.45378607999996</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>57250</v>
       </c>
       <c r="J74" t="n">
-        <v>57250</v>
-      </c>
-      <c r="K74" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3322,26 +3296,23 @@
         <v>-13.95378607999996</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>57300</v>
       </c>
       <c r="J75" t="n">
-        <v>57300</v>
-      </c>
-      <c r="K75" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3366,26 +3337,23 @@
         <v>-13.85378607999996</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>57600</v>
       </c>
       <c r="J76" t="n">
-        <v>57600</v>
-      </c>
-      <c r="K76" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3410,26 +3378,23 @@
         <v>-13.21348607999996</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="J77" t="n">
-        <v>58000</v>
-      </c>
-      <c r="K77" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>58100</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3454,24 +3419,23 @@
         <v>-13.21348607999996</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>58350</v>
+      </c>
+      <c r="J78" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3496,24 +3460,23 @@
         <v>-40.16998607999996</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>58350</v>
+      </c>
+      <c r="J79" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3538,24 +3501,23 @@
         <v>-36.11508607999995</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>57900</v>
+      </c>
+      <c r="J80" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3580,24 +3542,23 @@
         <v>-31.94508607999995</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>58300</v>
+      </c>
+      <c r="J81" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3622,24 +3583,23 @@
         <v>-21.57658607999996</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>58750</v>
+      </c>
+      <c r="J82" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3664,24 +3624,23 @@
         <v>-21.57658607999996</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>58950</v>
+      </c>
+      <c r="J83" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3706,24 +3665,23 @@
         <v>-21.62778607999996</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>58950</v>
+      </c>
+      <c r="J84" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3748,24 +3706,23 @@
         <v>17.32961392000004</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>58650</v>
+      </c>
+      <c r="J85" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3790,24 +3747,23 @@
         <v>-42.67038607999996</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>59000</v>
+      </c>
+      <c r="J86" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3832,24 +3788,23 @@
         <v>-8.892586079999958</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>58900</v>
+      </c>
+      <c r="J87" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3874,24 +3829,23 @@
         <v>-6.191786079999958</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>58950</v>
+      </c>
+      <c r="J88" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3916,24 +3870,23 @@
         <v>-6.191786079999958</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>59200</v>
+      </c>
+      <c r="J89" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3958,24 +3911,23 @@
         <v>-6.191786079999958</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>59200</v>
+      </c>
+      <c r="J90" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4000,24 +3952,23 @@
         <v>-2.021786079999958</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>59200</v>
+      </c>
+      <c r="J91" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4042,24 +3993,23 @@
         <v>-0.9928860799999584</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>59450</v>
+      </c>
+      <c r="J92" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4084,24 +4034,23 @@
         <v>-0.9928860799999584</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>59500</v>
+      </c>
+      <c r="J93" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4126,24 +4075,23 @@
         <v>-0.9928860799999584</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>59500</v>
+      </c>
+      <c r="J94" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4168,24 +4116,23 @@
         <v>-1.018186079999958</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>59500</v>
+      </c>
+      <c r="J95" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4210,24 +4157,23 @@
         <v>12.89751392000004</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>59350</v>
+      </c>
+      <c r="J96" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4252,24 +4198,23 @@
         <v>12.88071392000004</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>59850</v>
+      </c>
+      <c r="J97" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4296,22 +4241,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4338,22 +4280,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4380,22 +4319,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4422,22 +4358,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4464,22 +4397,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4506,22 +4436,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4548,22 +4475,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4588,24 +4512,23 @@
         <v>105.20781392</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>58100</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.065567986230637</v>
       </c>
       <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>1.015706806282723</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4630,24 +4553,15 @@
         <v>186.03511163</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4672,24 +4586,15 @@
         <v>186.03511163</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4714,24 +4619,15 @@
         <v>179.53641163</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4756,24 +4652,15 @@
         <v>180.50571163</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4798,24 +4685,15 @@
         <v>156.98071163</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4840,24 +4718,15 @@
         <v>160.98071163</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4882,24 +4751,15 @@
         <v>178.08961163</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4926,22 +4786,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4966,24 +4817,15 @@
         <v>164.65081163</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5008,24 +4850,15 @@
         <v>148.2236116300001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5050,24 +4883,15 @@
         <v>165.25001163</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5092,24 +4916,15 @@
         <v>165.23081163</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5134,24 +4949,15 @@
         <v>157.23081163</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5176,24 +4982,15 @@
         <v>169.25581163</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5218,24 +5015,15 @@
         <v>169.25581163</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5260,24 +5048,15 @@
         <v>171.42451163</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5302,24 +5081,15 @@
         <v>171.42451163</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5344,24 +5114,15 @@
         <v>172.42671163</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5386,24 +5147,15 @@
         <v>165.37021163</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5428,24 +5180,15 @@
         <v>57.14481163000004</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5470,24 +5213,15 @@
         <v>58.14481163000004</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5512,24 +5246,15 @@
         <v>51.64481163000004</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5554,24 +5279,15 @@
         <v>51.64481163000004</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5596,24 +5312,15 @@
         <v>55.64481163000004</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5640,22 +5347,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5680,24 +5378,15 @@
         <v>60.51421163000003</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5722,24 +5411,15 @@
         <v>61.94451163000004</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5764,24 +5444,15 @@
         <v>64.55641163000004</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5806,26 +5477,15 @@
         <v>83.01191163000004</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>57250</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1.095436681222707</v>
-      </c>
-      <c r="N134" t="n">
-        <v>1.021052631578947</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5852,16 +5512,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5888,16 +5545,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5924,16 +5578,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5960,16 +5611,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5994,18 +5642,15 @@
         <v>80.39091163000005</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6030,18 +5675,15 @@
         <v>88.46101163000004</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6066,18 +5708,15 @@
         <v>88.46101163000004</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6102,18 +5741,15 @@
         <v>110.51831163</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6138,18 +5774,15 @@
         <v>115.97241163</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6174,20 +5807,17 @@
         <v>139.30451163</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest DASH.xlsx
+++ b/BackTest/2020-01-11 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-240.8612</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-250.6691</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>57450</v>
@@ -521,7 +521,7 @@
         <v>-250.6691</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>57400</v>
@@ -562,7 +562,7 @@
         <v>-257.7825</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>57400</v>
@@ -603,7 +603,7 @@
         <v>-238.2158</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>57300</v>
@@ -640,11 +640,9 @@
         <v>-233.2158</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>57700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>57300</v>
       </c>
@@ -681,11 +679,9 @@
         <v>72.61240000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>57850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>57300</v>
       </c>
@@ -986,14 +982,10 @@
         <v>165.7334</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>58100</v>
-      </c>
-      <c r="J17" t="n">
-        <v>58100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -1026,14 +1018,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1062,19 +1048,11 @@
         <v>89.09970000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>58000</v>
-      </c>
-      <c r="J19" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1106,14 +1084,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1142,19 +1114,11 @@
         <v>89.09970000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>58000</v>
-      </c>
-      <c r="J21" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1186,14 +1150,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1225,14 +1183,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1261,19 +1213,11 @@
         <v>89.04511392000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>57800</v>
-      </c>
-      <c r="J24" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1302,19 +1246,11 @@
         <v>89.02961392</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>57750</v>
-      </c>
-      <c r="J25" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1343,19 +1279,11 @@
         <v>83.79411392</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>57650</v>
-      </c>
-      <c r="J26" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1384,19 +1312,11 @@
         <v>83.79411392</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>57500</v>
-      </c>
-      <c r="J27" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1428,14 +1348,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1464,19 +1378,11 @@
         <v>83.80771392000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>57400</v>
-      </c>
-      <c r="J29" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1505,19 +1411,11 @@
         <v>83.80771392000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>57450</v>
-      </c>
-      <c r="J30" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1546,19 +1444,11 @@
         <v>83.70771392000002</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>57450</v>
-      </c>
-      <c r="J31" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1587,19 +1477,11 @@
         <v>83.69221392000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>57400</v>
-      </c>
-      <c r="J32" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1628,19 +1510,11 @@
         <v>81.61911392000002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>57300</v>
-      </c>
-      <c r="J33" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1669,19 +1543,11 @@
         <v>81.61911392000002</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>57150</v>
-      </c>
-      <c r="J34" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1710,19 +1576,11 @@
         <v>81.61911392000002</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>57150</v>
-      </c>
-      <c r="J35" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1751,19 +1609,11 @@
         <v>77.70651392000002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>57150</v>
-      </c>
-      <c r="J36" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1792,19 +1642,11 @@
         <v>66.90651392000002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>57100</v>
-      </c>
-      <c r="J37" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1833,19 +1675,11 @@
         <v>66.90651392000002</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>57050</v>
-      </c>
-      <c r="J38" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1874,17 +1708,15 @@
         <v>67.60271392000003</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>57050</v>
+      </c>
       <c r="J39" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>57050</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1913,17 +1745,17 @@
         <v>67.60271392000003</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>57100</v>
       </c>
       <c r="J40" t="n">
-        <v>58100</v>
+        <v>57050</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1954,15 +1786,17 @@
         <v>67.60271392000003</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>57100</v>
+      </c>
       <c r="J41" t="n">
-        <v>58100</v>
+        <v>57050</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1993,17 +1827,15 @@
         <v>66.79741392000003</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>57100</v>
+      </c>
       <c r="J42" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>57100</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2032,15 +1864,17 @@
         <v>67.29741392000003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>57050</v>
+      </c>
       <c r="J43" t="n">
-        <v>58100</v>
+        <v>57100</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -2071,15 +1905,17 @@
         <v>57.24411392000003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>57250</v>
+      </c>
       <c r="J44" t="n">
-        <v>58100</v>
+        <v>57100</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2110,17 +1946,15 @@
         <v>55.58021392000003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>57200</v>
+      </c>
       <c r="J45" t="n">
-        <v>58100</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>57200</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2149,15 +1983,17 @@
         <v>45.53531392000003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>57050</v>
+      </c>
       <c r="J46" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2188,17 +2024,17 @@
         <v>35.48201392000003</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>57000</v>
       </c>
       <c r="J47" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2229,11 +2065,13 @@
         <v>35.48201392000003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>56950</v>
+      </c>
       <c r="J48" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2268,11 +2106,13 @@
         <v>35.48201392000003</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>56950</v>
+      </c>
       <c r="J49" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2307,11 +2147,13 @@
         <v>29.11591392000003</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>56950</v>
+      </c>
       <c r="J50" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2346,11 +2188,13 @@
         <v>29.11591392000003</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>56900</v>
+      </c>
       <c r="J51" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2385,11 +2229,13 @@
         <v>29.98991392000003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>56900</v>
+      </c>
       <c r="J52" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2424,11 +2270,13 @@
         <v>30.23631392000003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>57000</v>
+      </c>
       <c r="J53" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2463,13 +2311,13 @@
         <v>30.23631392000003</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>57050</v>
       </c>
       <c r="J54" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2504,13 +2352,13 @@
         <v>30.23631392000003</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>57050</v>
       </c>
       <c r="J55" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2545,11 +2393,13 @@
         <v>25.01311392000003</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>57050</v>
+      </c>
       <c r="J56" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2584,11 +2434,13 @@
         <v>37.11311392000003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>56900</v>
+      </c>
       <c r="J57" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2627,7 +2479,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2666,7 +2518,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2705,7 +2557,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2744,7 +2596,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2783,7 +2635,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2818,11 +2670,13 @@
         <v>25.81731392000004</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>57800</v>
+      </c>
       <c r="J63" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2857,11 +2711,13 @@
         <v>25.81731392000004</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>57600</v>
+      </c>
       <c r="J64" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2896,11 +2752,13 @@
         <v>25.79981392000004</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>57600</v>
+      </c>
       <c r="J65" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2939,7 +2797,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2978,7 +2836,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3017,7 +2875,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3056,7 +2914,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3091,13 +2949,13 @@
         <v>-29.93808607999996</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>57150</v>
       </c>
       <c r="J70" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3132,13 +2990,13 @@
         <v>-29.16868607999996</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>56950</v>
       </c>
       <c r="J71" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3173,13 +3031,13 @@
         <v>-28.12138607999996</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>57200</v>
       </c>
       <c r="J72" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3214,13 +3072,13 @@
         <v>-28.12138607999996</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>57250</v>
       </c>
       <c r="J73" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3255,13 +3113,13 @@
         <v>-15.45378607999996</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>57250</v>
       </c>
       <c r="J74" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3296,13 +3154,13 @@
         <v>-13.95378607999996</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>57300</v>
       </c>
       <c r="J75" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3337,13 +3195,13 @@
         <v>-13.85378607999996</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>57600</v>
       </c>
       <c r="J76" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3378,13 +3236,13 @@
         <v>-13.21348607999996</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>58000</v>
       </c>
       <c r="J77" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3419,13 +3277,13 @@
         <v>-13.21348607999996</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>58350</v>
       </c>
       <c r="J78" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3460,13 +3318,13 @@
         <v>-40.16998607999996</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>58350</v>
       </c>
       <c r="J79" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3501,13 +3359,13 @@
         <v>-36.11508607999995</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>57900</v>
       </c>
       <c r="J80" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3542,13 +3400,13 @@
         <v>-31.94508607999995</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>58300</v>
       </c>
       <c r="J81" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3583,13 +3441,13 @@
         <v>-21.57658607999996</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>58750</v>
       </c>
       <c r="J82" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3624,13 +3482,11 @@
         <v>-21.57658607999996</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>58950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3665,13 +3521,11 @@
         <v>-21.62778607999996</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>58950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3706,13 +3560,11 @@
         <v>17.32961392000004</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>58650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3747,13 +3599,11 @@
         <v>-42.67038607999996</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>59000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3788,13 +3638,11 @@
         <v>-8.892586079999958</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>58900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3829,13 +3677,11 @@
         <v>-6.191786079999958</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>58950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3870,13 +3716,11 @@
         <v>-6.191786079999958</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3911,13 +3755,11 @@
         <v>-6.191786079999958</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>59200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3952,13 +3794,11 @@
         <v>-2.021786079999958</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>59200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3993,13 +3833,11 @@
         <v>-0.9928860799999584</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>59450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4034,13 +3872,11 @@
         <v>-0.9928860799999584</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>59500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4075,13 +3911,11 @@
         <v>-0.9928860799999584</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>59500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4116,13 +3950,11 @@
         <v>-1.018186079999958</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>59500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4157,13 +3989,11 @@
         <v>12.89751392000004</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>59350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4198,13 +4028,11 @@
         <v>12.88071392000004</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4243,7 +4071,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4282,7 +4110,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4321,7 +4149,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4360,7 +4188,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4399,7 +4227,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4438,7 +4266,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4477,7 +4305,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4512,23 +4340,21 @@
         <v>105.20781392</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>58100</v>
+        <v>57200</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.065567986230637</v>
-      </c>
-      <c r="M105" t="n">
-        <v>1.015706806282723</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4553,11 +4379,17 @@
         <v>186.03511163</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4586,11 +4418,17 @@
         <v>186.03511163</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4619,11 +4457,17 @@
         <v>179.53641163</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4652,11 +4496,17 @@
         <v>180.50571163</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4685,11 +4535,17 @@
         <v>156.98071163</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4718,11 +4574,17 @@
         <v>160.98071163</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4751,11 +4613,17 @@
         <v>178.08961163</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4787,8 +4655,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4817,11 +4691,17 @@
         <v>164.65081163</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4850,11 +4730,17 @@
         <v>148.2236116300001</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4883,11 +4769,17 @@
         <v>165.25001163</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4916,15 +4808,23 @@
         <v>165.23081163</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>1.087657342657343</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.021052631578947</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4949,7 +4849,7 @@
         <v>157.23081163</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4982,7 +4882,7 @@
         <v>169.25581163</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5015,7 +4915,7 @@
         <v>169.25581163</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5048,7 +4948,7 @@
         <v>171.42451163</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5081,7 +4981,7 @@
         <v>171.42451163</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5114,7 +5014,7 @@
         <v>172.42671163</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5147,7 +5047,7 @@
         <v>165.37021163</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5180,7 +5080,7 @@
         <v>57.14481163000004</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5213,7 +5113,7 @@
         <v>58.14481163000004</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5246,7 +5146,7 @@
         <v>51.64481163000004</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5279,7 +5179,7 @@
         <v>51.64481163000004</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5312,7 +5212,7 @@
         <v>55.64481163000004</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5345,7 +5245,7 @@
         <v>57.58021163000004</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5378,7 +5278,7 @@
         <v>60.51421163000003</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5411,7 +5311,7 @@
         <v>61.94451163000004</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5444,7 +5344,7 @@
         <v>64.55641163000004</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5477,7 +5377,7 @@
         <v>83.01191163000004</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5510,7 +5410,7 @@
         <v>83.11191163000004</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5543,7 +5443,7 @@
         <v>90.01191163000004</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5576,7 +5476,7 @@
         <v>91.53691163000005</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5609,7 +5509,7 @@
         <v>77.48821163000005</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5642,7 +5542,7 @@
         <v>80.39091163000005</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5675,7 +5575,7 @@
         <v>88.46101163000004</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5708,7 +5608,7 @@
         <v>88.46101163000004</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5741,7 +5641,7 @@
         <v>110.51831163</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5774,7 +5674,7 @@
         <v>115.97241163</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5807,7 +5707,7 @@
         <v>139.30451163</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5818,6 +5718,6 @@
       <c r="M144" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest DASH.xlsx
+++ b/BackTest/2020-01-11 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -640,9 +640,11 @@
         <v>-233.2158</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>57700</v>
+      </c>
       <c r="J7" t="n">
         <v>57300</v>
       </c>
@@ -679,9 +681,11 @@
         <v>72.61240000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>57850</v>
+      </c>
       <c r="J8" t="n">
         <v>57300</v>
       </c>
@@ -1708,14 +1712,10 @@
         <v>67.60271392000003</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>57050</v>
-      </c>
-      <c r="J39" t="n">
-        <v>57050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1745,19 +1745,11 @@
         <v>67.60271392000003</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>57100</v>
-      </c>
-      <c r="J40" t="n">
-        <v>57050</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1786,19 +1778,11 @@
         <v>67.60271392000003</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>57100</v>
-      </c>
-      <c r="J41" t="n">
-        <v>57050</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1827,14 +1811,10 @@
         <v>66.79741392000003</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>57100</v>
-      </c>
-      <c r="J42" t="n">
-        <v>57100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1864,19 +1844,11 @@
         <v>67.29741392000003</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>57050</v>
-      </c>
-      <c r="J43" t="n">
-        <v>57100</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1905,19 +1877,11 @@
         <v>57.24411392000003</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>57250</v>
-      </c>
-      <c r="J44" t="n">
-        <v>57100</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1946,14 +1910,10 @@
         <v>55.58021392000003</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>57200</v>
-      </c>
-      <c r="J45" t="n">
-        <v>57200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1983,19 +1943,11 @@
         <v>45.53531392000003</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>57050</v>
-      </c>
-      <c r="J46" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2024,19 +1976,11 @@
         <v>35.48201392000003</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>57000</v>
-      </c>
-      <c r="J47" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2065,19 +2009,11 @@
         <v>35.48201392000003</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56950</v>
-      </c>
-      <c r="J48" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2106,19 +2042,11 @@
         <v>35.48201392000003</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>56950</v>
-      </c>
-      <c r="J49" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2147,19 +2075,11 @@
         <v>29.11591392000003</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>56950</v>
-      </c>
-      <c r="J50" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2188,19 +2108,11 @@
         <v>29.11591392000003</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>56900</v>
-      </c>
-      <c r="J51" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2229,19 +2141,11 @@
         <v>29.98991392000003</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>56900</v>
-      </c>
-      <c r="J52" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2270,19 +2174,11 @@
         <v>30.23631392000003</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>57000</v>
-      </c>
-      <c r="J53" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2311,19 +2207,11 @@
         <v>30.23631392000003</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>57050</v>
-      </c>
-      <c r="J54" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2352,19 +2240,11 @@
         <v>30.23631392000003</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>57050</v>
-      </c>
-      <c r="J55" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2393,19 +2273,11 @@
         <v>25.01311392000003</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>57050</v>
-      </c>
-      <c r="J56" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2434,19 +2306,11 @@
         <v>37.11311392000003</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>56900</v>
-      </c>
-      <c r="J57" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2478,14 +2342,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2517,14 +2375,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2556,14 +2408,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2595,14 +2441,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2634,14 +2474,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2670,19 +2504,11 @@
         <v>25.81731392000004</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>57800</v>
-      </c>
-      <c r="J63" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2711,19 +2537,11 @@
         <v>25.81731392000004</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>57600</v>
-      </c>
-      <c r="J64" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2752,19 +2570,11 @@
         <v>25.79981392000004</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>57600</v>
-      </c>
-      <c r="J65" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2796,14 +2606,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2835,14 +2639,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2874,14 +2672,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2913,14 +2705,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2949,19 +2735,11 @@
         <v>-29.93808607999996</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>57150</v>
-      </c>
-      <c r="J70" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2990,19 +2768,11 @@
         <v>-29.16868607999996</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>56950</v>
-      </c>
-      <c r="J71" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3031,19 +2801,11 @@
         <v>-28.12138607999996</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>57200</v>
-      </c>
-      <c r="J72" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3072,19 +2834,11 @@
         <v>-28.12138607999996</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>57250</v>
-      </c>
-      <c r="J73" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3113,19 +2867,11 @@
         <v>-15.45378607999996</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>57250</v>
-      </c>
-      <c r="J74" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3154,19 +2900,11 @@
         <v>-13.95378607999996</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>57300</v>
-      </c>
-      <c r="J75" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3195,19 +2933,11 @@
         <v>-13.85378607999996</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>57600</v>
-      </c>
-      <c r="J76" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3236,19 +2966,11 @@
         <v>-13.21348607999996</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>58000</v>
-      </c>
-      <c r="J77" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3277,19 +2999,11 @@
         <v>-13.21348607999996</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>58350</v>
-      </c>
-      <c r="J78" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3318,19 +3032,11 @@
         <v>-40.16998607999996</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>58350</v>
-      </c>
-      <c r="J79" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3359,19 +3065,11 @@
         <v>-36.11508607999995</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>57900</v>
-      </c>
-      <c r="J80" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3400,19 +3098,11 @@
         <v>-31.94508607999995</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>58300</v>
-      </c>
-      <c r="J81" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3441,19 +3131,11 @@
         <v>-21.57658607999996</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>58750</v>
-      </c>
-      <c r="J82" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3485,14 +3167,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3524,14 +3200,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3563,14 +3233,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3602,14 +3266,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3641,14 +3299,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3680,14 +3332,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3719,14 +3365,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3758,14 +3398,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3797,14 +3431,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3836,14 +3464,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3875,14 +3497,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3914,14 +3530,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3953,14 +3563,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3992,14 +3596,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4031,14 +3629,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4070,14 +3662,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4109,14 +3695,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4148,14 +3728,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4187,14 +3761,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4226,14 +3794,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4262,17 +3824,11 @@
         <v>73.52761392000005</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4301,17 +3857,11 @@
         <v>109.2892139200001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4340,17 +3890,11 @@
         <v>105.20781392</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4379,17 +3923,11 @@
         <v>186.03511163</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4418,17 +3956,11 @@
         <v>186.03511163</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4457,17 +3989,11 @@
         <v>179.53641163</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4496,17 +4022,11 @@
         <v>180.50571163</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4535,17 +4055,11 @@
         <v>156.98071163</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4574,17 +4088,11 @@
         <v>160.98071163</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4613,17 +4121,11 @@
         <v>178.08961163</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4652,17 +4154,11 @@
         <v>144.90651163</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4691,17 +4187,11 @@
         <v>164.65081163</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4730,17 +4220,11 @@
         <v>148.2236116300001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4769,17 +4253,11 @@
         <v>165.25001163</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4811,20 +4289,12 @@
         <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>57200</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>1.087657342657343</v>
-      </c>
-      <c r="M117" t="n">
-        <v>1.021052631578947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4849,7 +4319,7 @@
         <v>157.23081163</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4915,7 +4385,7 @@
         <v>169.25581163</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4948,7 +4418,7 @@
         <v>171.42451163</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4981,7 +4451,7 @@
         <v>171.42451163</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5014,7 +4484,7 @@
         <v>172.42671163</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5047,7 +4517,7 @@
         <v>165.37021163</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5080,7 +4550,7 @@
         <v>57.14481163000004</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5113,7 +4583,7 @@
         <v>58.14481163000004</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5146,7 +4616,7 @@
         <v>51.64481163000004</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5179,7 +4649,7 @@
         <v>51.64481163000004</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5410,7 +4880,7 @@
         <v>83.11191163000004</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5443,7 +4913,7 @@
         <v>90.01191163000004</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5476,7 +4946,7 @@
         <v>91.53691163000005</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5509,7 +4979,7 @@
         <v>77.48821163000005</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5542,7 +5012,7 @@
         <v>80.39091163000005</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5575,7 +5045,7 @@
         <v>88.46101163000004</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5608,7 +5078,7 @@
         <v>88.46101163000004</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5718,6 +5188,6 @@
       <c r="M144" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest DASH.xlsx
+++ b/BackTest/2020-01-11 BackTest DASH.xlsx
@@ -3824,7 +3824,7 @@
         <v>73.52761392000005</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3857,7 +3857,7 @@
         <v>109.2892139200001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3890,7 +3890,7 @@
         <v>105.20781392</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3923,7 +3923,7 @@
         <v>186.03511163</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3956,7 +3956,7 @@
         <v>186.03511163</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3989,7 +3989,7 @@
         <v>179.53641163</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4022,7 +4022,7 @@
         <v>180.50571163</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4055,7 +4055,7 @@
         <v>156.98071163</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4088,7 +4088,7 @@
         <v>160.98071163</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4121,7 +4121,7 @@
         <v>178.08961163</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4154,7 +4154,7 @@
         <v>144.90651163</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4187,7 +4187,7 @@
         <v>164.65081163</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4220,7 +4220,7 @@
         <v>148.2236116300001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4253,7 +4253,7 @@
         <v>165.25001163</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4286,7 +4286,7 @@
         <v>165.23081163</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4352,7 +4352,7 @@
         <v>169.25581163</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4682,7 +4682,7 @@
         <v>55.64481163000004</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4715,7 +4715,7 @@
         <v>57.58021163000004</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4748,7 +4748,7 @@
         <v>60.51421163000003</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4781,7 +4781,7 @@
         <v>61.94451163000004</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4814,7 +4814,7 @@
         <v>64.55641163000004</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4847,7 +4847,7 @@
         <v>83.01191163000004</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4913,7 +4913,7 @@
         <v>90.01191163000004</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4946,7 +4946,7 @@
         <v>91.53691163000005</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4979,7 +4979,7 @@
         <v>77.48821163000005</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5012,7 +5012,7 @@
         <v>80.39091163000005</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5045,7 +5045,7 @@
         <v>88.46101163000004</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5078,7 +5078,7 @@
         <v>88.46101163000004</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5111,7 +5111,7 @@
         <v>110.51831163</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5144,7 +5144,7 @@
         <v>115.97241163</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5177,7 +5177,7 @@
         <v>139.30451163</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
